--- a/Calculos/MoS_Seno final_modificado.xlsx
+++ b/Calculos/MoS_Seno final_modificado.xlsx
@@ -5,19 +5,21 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\javiv\Documents\GitHub\Minisat_est_Analisis_RJ\Calculos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rafa\Documents\GitHub\Minisat_est_Analisis_RJ\Calculos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B0C6BE6-00C4-4DC2-AEFC-8A2FEF95338B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{763C8989-04A1-4F20-BEB1-39EEADC46054}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MoS Estatico X" sheetId="1" r:id="rId1"/>
     <sheet name="MoS Estatico Y" sheetId="2" r:id="rId2"/>
     <sheet name="MoS Estatico Z" sheetId="3" r:id="rId3"/>
     <sheet name="Seno x" sheetId="4" r:id="rId4"/>
-    <sheet name="Seno z" sheetId="5" r:id="rId5"/>
+    <sheet name="Hoja2" sheetId="7" r:id="rId5"/>
+    <sheet name="Seno z" sheetId="5" r:id="rId6"/>
+    <sheet name="Hoja1" sheetId="6" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="457" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="495" uniqueCount="61">
   <si>
     <t>Shell 2D Elements</t>
   </si>
@@ -206,6 +208,21 @@
   </si>
   <si>
     <t>beam</t>
+  </si>
+  <si>
+    <t>Análisis Lateral</t>
+  </si>
+  <si>
+    <t>Análisis Longitudinal</t>
+  </si>
+  <si>
+    <t>Maximo esfuerzo</t>
+  </si>
+  <si>
+    <t>Elemento</t>
+  </si>
+  <si>
+    <t>Maximo esfuerzo [Pa]</t>
   </si>
 </sst>
 </file>
@@ -6157,8 +6174,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91E329C4-7E96-4707-A44A-B8116FA21670}">
   <dimension ref="B1:AK65"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M13" sqref="M13"/>
+    <sheetView topLeftCell="R1" workbookViewId="0">
+      <selection activeCell="AB4" sqref="AB4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8654,8 +8671,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF71C30C-B3DA-491B-B9AB-D717A9293A94}">
   <dimension ref="B1:AK65"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J22" sqref="J22"/>
+    <sheetView topLeftCell="V10" workbookViewId="0">
+      <selection activeCell="AD19" sqref="AD19:AJ31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8877,15 +8894,15 @@
       </c>
       <c r="X6" s="5">
         <f>AE6</f>
-        <v>792.65679999999998</v>
+        <v>871.92248000000006</v>
       </c>
       <c r="Y6" s="2">
         <f>((Q6*U6)/(R6+S6*X6*T6))-1</f>
-        <v>0.58029501047827292</v>
+        <v>0.58007869829401648</v>
       </c>
       <c r="Z6" s="2">
         <f>((Q6*W6)/(R6+S6*X6*V6))-1</f>
-        <v>0.82881381957241418</v>
+        <v>0.82846356899657292</v>
       </c>
       <c r="AC6" s="11">
         <v>0</v>
@@ -8894,22 +8911,28 @@
         <v>1</v>
       </c>
       <c r="AE6" s="12">
-        <v>792.65679999999998</v>
+        <f>AE20*1.1</f>
+        <v>871.92248000000006</v>
       </c>
       <c r="AF6" s="12">
-        <v>780.7962</v>
+        <f t="shared" ref="AF6:AJ6" si="0">AF20*1.1</f>
+        <v>858.87582000000009</v>
       </c>
       <c r="AG6" s="12">
-        <v>1320.194</v>
+        <f t="shared" si="0"/>
+        <v>1452.2134000000001</v>
       </c>
       <c r="AH6" s="12">
-        <v>6.4331809999999996E-3</v>
+        <f t="shared" si="0"/>
+        <v>7.0764991000000005E-3</v>
       </c>
       <c r="AI6" s="12">
-        <v>64.084919999999997</v>
+        <f t="shared" si="0"/>
+        <v>70.493412000000006</v>
       </c>
       <c r="AJ6" s="12">
-        <v>60.218069999999997</v>
+        <f t="shared" si="0"/>
+        <v>66.239877000000007</v>
       </c>
     </row>
     <row r="7" spans="2:37" x14ac:dyDescent="0.25">
@@ -8943,16 +8966,16 @@
         <v>1100000000</v>
       </c>
       <c r="X7" s="5">
-        <f t="shared" ref="X7:X17" si="0">AE7</f>
-        <v>6871.9610000000002</v>
+        <f t="shared" ref="X7:X17" si="1">AE7</f>
+        <v>7559.1571000000013</v>
       </c>
       <c r="Y7" s="2">
-        <f t="shared" ref="Y7:Y17" si="1">((Q7*U7)/(R7+S7*X7*T7))-1</f>
-        <v>0.56387501655911798</v>
+        <f t="shared" ref="Y7:Y17" si="2">((Q7*U7)/(R7+S7*X7*T7))-1</f>
+        <v>0.56204036376867927</v>
       </c>
       <c r="Z7" s="2">
-        <f t="shared" ref="Z7:Z17" si="2">((Q7*W7)/(R7+S7*X7*V7))-1</f>
-        <v>0.80233511247361977</v>
+        <f t="shared" ref="Z7:Z17" si="3">((Q7*W7)/(R7+S7*X7*V7))-1</f>
+        <v>0.79939015226747911</v>
       </c>
       <c r="AC7" s="11">
         <v>0</v>
@@ -8961,22 +8984,28 @@
         <v>2</v>
       </c>
       <c r="AE7" s="12">
-        <v>6871.9610000000002</v>
+        <f t="shared" ref="AE7:AJ7" si="4">AE21*1.1</f>
+        <v>7559.1571000000013</v>
       </c>
       <c r="AF7" s="12">
-        <v>1028.9829999999999</v>
+        <f t="shared" si="4"/>
+        <v>1131.8813</v>
       </c>
       <c r="AG7" s="12">
-        <v>843.62490000000003</v>
+        <f t="shared" si="4"/>
+        <v>927.98739000000012</v>
       </c>
       <c r="AH7" s="12">
-        <v>5.749115E-3</v>
+        <f t="shared" si="4"/>
+        <v>6.3240265000000006E-3</v>
       </c>
       <c r="AI7" s="12">
-        <v>211.2208</v>
+        <f t="shared" si="4"/>
+        <v>232.34288000000001</v>
       </c>
       <c r="AJ7" s="12">
-        <v>5.8300140000000003</v>
+        <f t="shared" si="4"/>
+        <v>6.4130154000000008</v>
       </c>
     </row>
     <row r="8" spans="2:37" x14ac:dyDescent="0.25">
@@ -9005,16 +9034,16 @@
         <v>1100000000</v>
       </c>
       <c r="X8" s="5">
-        <f t="shared" si="0"/>
-        <v>6871.8339999999998</v>
+        <f t="shared" si="1"/>
+        <v>7559.0174000000006</v>
       </c>
       <c r="Y8" s="2">
-        <f t="shared" si="1"/>
-        <v>0.56387535601770922</v>
+        <f t="shared" si="2"/>
+        <v>0.56204073629753593</v>
       </c>
       <c r="Z8" s="2">
-        <f t="shared" si="2"/>
-        <v>0.8023356576195837</v>
+        <f t="shared" si="3"/>
+        <v>0.79939074997000437</v>
       </c>
       <c r="AC8" s="11">
         <v>0</v>
@@ -9023,22 +9052,28 @@
         <v>3</v>
       </c>
       <c r="AE8" s="12">
-        <v>6871.8339999999998</v>
+        <f t="shared" ref="AE8:AJ8" si="5">AE22*1.1</f>
+        <v>7559.0174000000006</v>
       </c>
       <c r="AF8" s="12">
-        <v>1028.991</v>
+        <f t="shared" si="5"/>
+        <v>1131.8901000000001</v>
       </c>
       <c r="AG8" s="12">
-        <v>843.60379999999998</v>
+        <f t="shared" si="5"/>
+        <v>927.96418000000006</v>
       </c>
       <c r="AH8" s="12">
-        <v>5.7551900000000003E-3</v>
+        <f t="shared" si="5"/>
+        <v>6.3307090000000012E-3</v>
       </c>
       <c r="AI8" s="12">
-        <v>211.21870000000001</v>
+        <f t="shared" si="5"/>
+        <v>232.34057000000004</v>
       </c>
       <c r="AJ8" s="12">
-        <v>5.8282740000000004</v>
+        <f t="shared" si="5"/>
+        <v>6.4111014000000006</v>
       </c>
     </row>
     <row r="9" spans="2:37" x14ac:dyDescent="0.25">
@@ -9068,16 +9103,16 @@
         <v>1100000000</v>
       </c>
       <c r="X9" s="5">
-        <f t="shared" si="0"/>
-        <v>792.69470000000001</v>
+        <f t="shared" si="1"/>
+        <v>871.96417000000008</v>
       </c>
       <c r="Y9" s="2">
-        <f t="shared" si="1"/>
-        <v>0.58029490703686437</v>
+        <f t="shared" si="2"/>
+        <v>0.58007858453961592</v>
       </c>
       <c r="Z9" s="2">
-        <f t="shared" si="2"/>
-        <v>0.82881365207194757</v>
+        <f t="shared" si="3"/>
+        <v>0.82846338481662918</v>
       </c>
       <c r="AC9" s="11">
         <v>0</v>
@@ -9086,22 +9121,28 @@
         <v>4</v>
       </c>
       <c r="AE9" s="12">
-        <v>792.69470000000001</v>
+        <f t="shared" ref="AE9:AJ9" si="6">AE23*1.1</f>
+        <v>871.96417000000008</v>
       </c>
       <c r="AF9" s="12">
-        <v>780.82489999999996</v>
+        <f t="shared" si="6"/>
+        <v>858.90739000000008</v>
       </c>
       <c r="AG9" s="12">
-        <v>1320.1659999999999</v>
+        <f t="shared" si="6"/>
+        <v>1452.1826000000001</v>
       </c>
       <c r="AH9" s="12">
-        <v>6.4332199999999999E-3</v>
+        <f t="shared" si="6"/>
+        <v>7.0765420000000008E-3</v>
       </c>
       <c r="AI9" s="12">
-        <v>64.085359999999994</v>
+        <f t="shared" si="6"/>
+        <v>70.493896000000007</v>
       </c>
       <c r="AJ9" s="12">
-        <v>60.218829999999997</v>
+        <f t="shared" si="6"/>
+        <v>66.240713</v>
       </c>
     </row>
     <row r="10" spans="2:37" x14ac:dyDescent="0.25">
@@ -9130,16 +9171,16 @@
         <v>1100000000</v>
       </c>
       <c r="X10" s="5">
-        <f t="shared" si="0"/>
-        <v>2721.346</v>
+        <f t="shared" si="1"/>
+        <v>2993.4806000000003</v>
       </c>
       <c r="Y10" s="2">
-        <f t="shared" si="1"/>
-        <v>0.57504846736697646</v>
+        <f t="shared" si="2"/>
+        <v>0.57431099267852881</v>
       </c>
       <c r="Z10" s="2">
-        <f t="shared" si="2"/>
-        <v>0.8203294495581297</v>
+        <f t="shared" si="3"/>
+        <v>0.8191386534085936</v>
       </c>
       <c r="AC10" s="11">
         <v>0</v>
@@ -9148,22 +9189,28 @@
         <v>5</v>
       </c>
       <c r="AE10" s="12">
-        <v>2721.346</v>
+        <f t="shared" ref="AE10:AJ10" si="7">AE24*1.1</f>
+        <v>2993.4806000000003</v>
       </c>
       <c r="AF10" s="12">
-        <v>727.79679999999996</v>
+        <f t="shared" si="7"/>
+        <v>800.57648000000006</v>
       </c>
       <c r="AG10" s="12">
-        <v>4229.0510000000004</v>
+        <f t="shared" si="7"/>
+        <v>4651.9561000000012</v>
       </c>
       <c r="AH10" s="12">
-        <v>2.0909489999999999E-2</v>
+        <f t="shared" si="7"/>
+        <v>2.3000439000000001E-2</v>
       </c>
       <c r="AI10" s="12">
-        <v>30.726610000000001</v>
+        <f t="shared" si="7"/>
+        <v>33.799271000000005</v>
       </c>
       <c r="AJ10" s="12">
-        <v>95.117649999999998</v>
+        <f t="shared" si="7"/>
+        <v>104.62941500000001</v>
       </c>
     </row>
     <row r="11" spans="2:37" x14ac:dyDescent="0.25">
@@ -9195,16 +9242,16 @@
         <v>1100000000</v>
       </c>
       <c r="X11" s="5">
-        <f t="shared" si="0"/>
-        <v>2721.3870000000002</v>
+        <f t="shared" si="1"/>
+        <v>2993.5257000000006</v>
       </c>
       <c r="Y11" s="2">
-        <f t="shared" si="1"/>
-        <v>0.57504835620645456</v>
+        <f t="shared" si="2"/>
+        <v>0.57431087051643437</v>
       </c>
       <c r="Z11" s="2">
-        <f t="shared" si="2"/>
-        <v>0.82032927003448131</v>
+        <f t="shared" si="3"/>
+        <v>0.81913845619086145</v>
       </c>
       <c r="AC11" s="11">
         <v>0</v>
@@ -9213,22 +9260,28 @@
         <v>6</v>
       </c>
       <c r="AE11" s="12">
-        <v>2721.3870000000002</v>
+        <f t="shared" ref="AE11:AJ11" si="8">AE25*1.1</f>
+        <v>2993.5257000000006</v>
       </c>
       <c r="AF11" s="12">
-        <v>727.7704</v>
+        <f t="shared" si="8"/>
+        <v>800.54744000000005</v>
       </c>
       <c r="AG11" s="12">
-        <v>4229.0780000000004</v>
+        <f t="shared" si="8"/>
+        <v>4651.9858000000013</v>
       </c>
       <c r="AH11" s="12">
-        <v>2.0904369999999999E-2</v>
+        <f t="shared" si="8"/>
+        <v>2.2994806999999999E-2</v>
       </c>
       <c r="AI11" s="12">
-        <v>30.727209999999999</v>
+        <f t="shared" si="8"/>
+        <v>33.799931000000001</v>
       </c>
       <c r="AJ11" s="12">
-        <v>95.118539999999996</v>
+        <f t="shared" si="8"/>
+        <v>104.63039400000001</v>
       </c>
     </row>
     <row r="12" spans="2:37" x14ac:dyDescent="0.25">
@@ -9290,16 +9343,16 @@
         <v>1100000000</v>
       </c>
       <c r="X12" s="5">
-        <f t="shared" si="0"/>
-        <v>2721.4349999999999</v>
+        <f t="shared" si="1"/>
+        <v>2993.5785000000001</v>
       </c>
       <c r="Y12" s="2">
-        <f t="shared" si="1"/>
-        <v>0.57504822606732708</v>
+        <f t="shared" si="2"/>
+        <v>0.57431072749742129</v>
       </c>
       <c r="Z12" s="2">
-        <f t="shared" si="2"/>
-        <v>0.82032905986049864</v>
+        <f t="shared" si="3"/>
+        <v>0.81913822530186375</v>
       </c>
       <c r="AC12" s="11">
         <v>0</v>
@@ -9308,22 +9361,28 @@
         <v>7</v>
       </c>
       <c r="AE12" s="12">
-        <v>2721.4349999999999</v>
+        <f t="shared" ref="AE12:AJ12" si="9">AE26*1.1</f>
+        <v>2993.5785000000001</v>
       </c>
       <c r="AF12" s="12">
-        <v>727.79629999999997</v>
+        <f t="shared" si="9"/>
+        <v>800.57593000000008</v>
       </c>
       <c r="AG12" s="12">
-        <v>4229.0290000000005</v>
+        <f t="shared" si="9"/>
+        <v>4651.9319000000005</v>
       </c>
       <c r="AH12" s="12">
-        <v>2.0904470000000001E-2</v>
+        <f t="shared" si="9"/>
+        <v>2.2994917000000004E-2</v>
       </c>
       <c r="AI12" s="12">
-        <v>30.727609999999999</v>
+        <f t="shared" si="9"/>
+        <v>33.800370999999998</v>
       </c>
       <c r="AJ12" s="12">
-        <v>95.120660000000001</v>
+        <f t="shared" si="9"/>
+        <v>104.63272600000001</v>
       </c>
     </row>
     <row r="13" spans="2:37" x14ac:dyDescent="0.25">
@@ -9387,16 +9446,16 @@
         <v>1100000000</v>
       </c>
       <c r="X13" s="5">
-        <f t="shared" si="0"/>
-        <v>792.69799999999998</v>
+        <f t="shared" si="1"/>
+        <v>871.96780000000001</v>
       </c>
       <c r="Y13" s="2">
-        <f t="shared" si="1"/>
-        <v>0.58029489803009349</v>
+        <f t="shared" si="2"/>
+        <v>0.58007857463488</v>
       </c>
       <c r="Z13" s="2">
-        <f t="shared" si="2"/>
-        <v>0.8288136374874755</v>
+        <f t="shared" si="3"/>
+        <v>0.82846336877985483</v>
       </c>
       <c r="AC13" s="11">
         <v>0</v>
@@ -9405,22 +9464,28 @@
         <v>8</v>
       </c>
       <c r="AE13" s="12">
-        <v>792.69799999999998</v>
+        <f t="shared" ref="AE13:AJ13" si="10">AE27*1.1</f>
+        <v>871.96780000000001</v>
       </c>
       <c r="AF13" s="12">
-        <v>780.79219999999998</v>
+        <f t="shared" si="10"/>
+        <v>858.87142000000006</v>
       </c>
       <c r="AG13" s="12">
-        <v>1320.153</v>
+        <f t="shared" si="10"/>
+        <v>1452.1683</v>
       </c>
       <c r="AH13" s="12">
-        <v>6.4325759999999997E-3</v>
+        <f t="shared" si="10"/>
+        <v>7.0758336000000003E-3</v>
       </c>
       <c r="AI13" s="12">
-        <v>64.087050000000005</v>
+        <f t="shared" si="10"/>
+        <v>70.495755000000017</v>
       </c>
       <c r="AJ13" s="12">
-        <v>60.219909999999999</v>
+        <f t="shared" si="10"/>
+        <v>66.241900999999999</v>
       </c>
     </row>
     <row r="14" spans="2:37" x14ac:dyDescent="0.25">
@@ -9453,16 +9518,16 @@
         <v>1100000000</v>
       </c>
       <c r="X14" s="5">
-        <f t="shared" si="0"/>
-        <v>792.65930000000003</v>
+        <f t="shared" si="1"/>
+        <v>871.92523000000006</v>
       </c>
       <c r="Y14" s="2">
-        <f t="shared" si="1"/>
-        <v>0.58029500365496056</v>
+        <f t="shared" si="2"/>
+        <v>0.58007869079042762</v>
       </c>
       <c r="Z14" s="2">
-        <f t="shared" si="2"/>
-        <v>0.82881380852356967</v>
+        <f t="shared" si="3"/>
+        <v>0.82846355684749917</v>
       </c>
       <c r="AC14" s="11">
         <v>0</v>
@@ -9471,22 +9536,28 @@
         <v>9</v>
       </c>
       <c r="AE14" s="12">
-        <v>792.65930000000003</v>
+        <f t="shared" ref="AE14:AJ14" si="11">AE28*1.1</f>
+        <v>871.92523000000006</v>
       </c>
       <c r="AF14" s="12">
-        <v>780.76639999999998</v>
+        <f t="shared" si="11"/>
+        <v>858.84304000000009</v>
       </c>
       <c r="AG14" s="12">
-        <v>1320.1869999999999</v>
+        <f t="shared" si="11"/>
+        <v>1452.2057</v>
       </c>
       <c r="AH14" s="12">
-        <v>6.4327259999999997E-3</v>
+        <f t="shared" si="11"/>
+        <v>7.0759986000000002E-3</v>
       </c>
       <c r="AI14" s="12">
-        <v>64.086579999999998</v>
+        <f t="shared" si="11"/>
+        <v>70.495238000000001</v>
       </c>
       <c r="AJ14" s="12">
-        <v>60.219180000000001</v>
+        <f t="shared" si="11"/>
+        <v>66.241098000000008</v>
       </c>
     </row>
     <row r="15" spans="2:37" x14ac:dyDescent="0.25">
@@ -9518,16 +9589,16 @@
         <v>1100000000</v>
       </c>
       <c r="X15" s="5">
-        <f t="shared" si="0"/>
-        <v>2721.4070000000002</v>
+        <f t="shared" si="1"/>
+        <v>2993.5477000000005</v>
       </c>
       <c r="Y15" s="2">
-        <f t="shared" si="1"/>
-        <v>0.57504830198181534</v>
+        <f t="shared" si="2"/>
+        <v>0.57431081092517577</v>
       </c>
       <c r="Z15" s="2">
-        <f t="shared" si="2"/>
-        <v>0.82032918246198272</v>
+        <f t="shared" si="3"/>
+        <v>0.81913835998710538</v>
       </c>
       <c r="AC15" s="11">
         <v>0</v>
@@ -9536,22 +9607,28 @@
         <v>10</v>
       </c>
       <c r="AE15" s="12">
-        <v>2721.4070000000002</v>
+        <f t="shared" ref="AE15:AJ15" si="12">AE29*1.1</f>
+        <v>2993.5477000000005</v>
       </c>
       <c r="AF15" s="12">
-        <v>727.8211</v>
+        <f t="shared" si="12"/>
+        <v>800.6032100000001</v>
       </c>
       <c r="AG15" s="12">
-        <v>4229.0140000000001</v>
+        <f t="shared" si="12"/>
+        <v>4651.9154000000008</v>
       </c>
       <c r="AH15" s="12">
-        <v>2.0908960000000001E-2</v>
+        <f t="shared" si="12"/>
+        <v>2.2999856000000003E-2</v>
       </c>
       <c r="AI15" s="12">
-        <v>30.72701</v>
+        <f t="shared" si="12"/>
+        <v>33.799711000000002</v>
       </c>
       <c r="AJ15" s="12">
-        <v>95.120009999999994</v>
+        <f t="shared" si="12"/>
+        <v>104.63201100000001</v>
       </c>
     </row>
     <row r="16" spans="2:37" x14ac:dyDescent="0.25">
@@ -9613,16 +9690,16 @@
         <v>1100000000</v>
       </c>
       <c r="X16" s="5">
-        <f t="shared" si="0"/>
-        <v>6872.0730000000003</v>
+        <f t="shared" si="1"/>
+        <v>7559.2803000000013</v>
       </c>
       <c r="Y16" s="2">
-        <f t="shared" si="1"/>
-        <v>0.56387471719418336</v>
+        <f t="shared" si="2"/>
+        <v>0.56204003523944124</v>
       </c>
       <c r="Z16" s="2">
-        <f t="shared" si="2"/>
-        <v>0.80233463171524777</v>
+        <f t="shared" si="3"/>
+        <v>0.79938962516006962</v>
       </c>
       <c r="AC16" s="11">
         <v>0</v>
@@ -9631,22 +9708,28 @@
         <v>11</v>
       </c>
       <c r="AE16" s="12">
-        <v>6872.0730000000003</v>
+        <f t="shared" ref="AE16:AJ16" si="13">AE30*1.1</f>
+        <v>7559.2803000000013</v>
       </c>
       <c r="AF16" s="12">
-        <v>1028.836</v>
+        <f t="shared" si="13"/>
+        <v>1131.7196000000001</v>
       </c>
       <c r="AG16" s="12">
-        <v>843.62009999999998</v>
+        <f t="shared" si="13"/>
+        <v>927.98211000000003</v>
       </c>
       <c r="AH16" s="12">
-        <v>5.7542100000000001E-3</v>
+        <f t="shared" si="13"/>
+        <v>6.3296310000000005E-3</v>
       </c>
       <c r="AI16" s="12">
-        <v>211.22550000000001</v>
+        <f t="shared" si="13"/>
+        <v>232.34805000000003</v>
       </c>
       <c r="AJ16" s="12">
-        <v>5.8268649999999997</v>
+        <f t="shared" si="13"/>
+        <v>6.4095515000000001</v>
       </c>
     </row>
     <row r="17" spans="3:36" x14ac:dyDescent="0.25">
@@ -9710,16 +9793,16 @@
         <v>1100000000</v>
       </c>
       <c r="X17" s="5">
-        <f t="shared" si="0"/>
-        <v>6872.1959999999999</v>
+        <f t="shared" si="1"/>
+        <v>7559.4156000000003</v>
       </c>
       <c r="Y17" s="2">
-        <f t="shared" si="1"/>
-        <v>0.56387438842746773</v>
+        <f t="shared" si="2"/>
+        <v>0.56203967444409786</v>
       </c>
       <c r="Z17" s="2">
-        <f t="shared" si="2"/>
-        <v>0.80233410373983149</v>
+        <f t="shared" si="3"/>
+        <v>0.79938904628353846</v>
       </c>
       <c r="AC17" s="11">
         <v>0</v>
@@ -9728,22 +9811,28 @@
         <v>12</v>
       </c>
       <c r="AE17" s="12">
-        <v>6872.1959999999999</v>
+        <f t="shared" ref="AE17:AJ17" si="14">AE31*1.1</f>
+        <v>7559.4156000000003</v>
       </c>
       <c r="AF17" s="12">
-        <v>1028.846</v>
+        <f t="shared" si="14"/>
+        <v>1131.7306000000001</v>
       </c>
       <c r="AG17" s="12">
-        <v>843.64099999999996</v>
+        <f t="shared" si="14"/>
+        <v>928.00510000000008</v>
       </c>
       <c r="AH17" s="12">
-        <v>5.7485100000000001E-3</v>
+        <f t="shared" si="14"/>
+        <v>6.3233610000000004E-3</v>
       </c>
       <c r="AI17" s="12">
-        <v>211.22749999999999</v>
+        <f t="shared" si="14"/>
+        <v>232.35025000000002</v>
       </c>
       <c r="AJ17" s="12">
-        <v>5.8286559999999996</v>
+        <f t="shared" si="14"/>
+        <v>6.4115216000000004</v>
       </c>
     </row>
     <row r="18" spans="3:36" x14ac:dyDescent="0.25">
@@ -9764,12 +9853,51 @@
       <c r="K19" s="2"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
+      <c r="AE19" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="AF19" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="AG19" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="AH19" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="AI19" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="AJ19" s="11" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="20" spans="3:36" x14ac:dyDescent="0.25">
       <c r="Q20" s="13" t="s">
         <v>24</v>
       </c>
       <c r="R20" s="13"/>
+      <c r="AD20" s="11">
+        <v>1</v>
+      </c>
+      <c r="AE20" s="12">
+        <v>792.65679999999998</v>
+      </c>
+      <c r="AF20" s="12">
+        <v>780.7962</v>
+      </c>
+      <c r="AG20" s="12">
+        <v>1320.194</v>
+      </c>
+      <c r="AH20" s="12">
+        <v>6.4331809999999996E-3</v>
+      </c>
+      <c r="AI20" s="12">
+        <v>64.084919999999997</v>
+      </c>
+      <c r="AJ20" s="12">
+        <v>60.218069999999997</v>
+      </c>
     </row>
     <row r="21" spans="3:36" x14ac:dyDescent="0.25">
       <c r="C21" s="2"/>
@@ -9791,6 +9919,27 @@
       <c r="U21" t="s">
         <v>27</v>
       </c>
+      <c r="AD21" s="11">
+        <v>2</v>
+      </c>
+      <c r="AE21" s="12">
+        <v>6871.9610000000002</v>
+      </c>
+      <c r="AF21" s="12">
+        <v>1028.9829999999999</v>
+      </c>
+      <c r="AG21" s="12">
+        <v>843.62490000000003</v>
+      </c>
+      <c r="AH21" s="12">
+        <v>5.749115E-3</v>
+      </c>
+      <c r="AI21" s="12">
+        <v>211.2208</v>
+      </c>
+      <c r="AJ21" s="12">
+        <v>5.8300140000000003</v>
+      </c>
     </row>
     <row r="22" spans="3:36" x14ac:dyDescent="0.25">
       <c r="J22" s="1"/>
@@ -9808,11 +9957,32 @@
       </c>
       <c r="T22" s="5">
         <f>ABS(AE6)</f>
-        <v>792.65679999999998</v>
+        <v>871.92248000000006</v>
       </c>
       <c r="U22" s="4">
         <f>(Q22/((1-R22)*T22*S22))-1</f>
-        <v>16.364954245581526</v>
+        <v>14.786322041437746</v>
+      </c>
+      <c r="AD22" s="11">
+        <v>3</v>
+      </c>
+      <c r="AE22" s="12">
+        <v>6871.8339999999998</v>
+      </c>
+      <c r="AF22" s="12">
+        <v>1028.991</v>
+      </c>
+      <c r="AG22" s="12">
+        <v>843.60379999999998</v>
+      </c>
+      <c r="AH22" s="12">
+        <v>5.7551900000000003E-3</v>
+      </c>
+      <c r="AI22" s="12">
+        <v>211.21870000000001</v>
+      </c>
+      <c r="AJ22" s="12">
+        <v>5.8282740000000004</v>
       </c>
     </row>
     <row r="23" spans="3:36" x14ac:dyDescent="0.25">
@@ -9833,12 +10003,33 @@
         <v>1</v>
       </c>
       <c r="T23" s="5">
-        <f t="shared" ref="T23:T33" si="3">ABS(AE7)</f>
-        <v>6871.9610000000002</v>
+        <f t="shared" ref="T23:T33" si="15">ABS(AE7)</f>
+        <v>7559.1571000000013</v>
       </c>
       <c r="U23" s="4">
-        <f t="shared" ref="U23:U33" si="4">(Q23/((1-R23)*T23*S23))-1</f>
-        <v>1.0029870752248251</v>
+        <f t="shared" ref="U23:U33" si="16">(Q23/((1-R23)*T23*S23))-1</f>
+        <v>0.82089734111347723</v>
+      </c>
+      <c r="AD23" s="11">
+        <v>4</v>
+      </c>
+      <c r="AE23" s="12">
+        <v>792.69470000000001</v>
+      </c>
+      <c r="AF23" s="12">
+        <v>780.82489999999996</v>
+      </c>
+      <c r="AG23" s="12">
+        <v>1320.1659999999999</v>
+      </c>
+      <c r="AH23" s="12">
+        <v>6.4332199999999999E-3</v>
+      </c>
+      <c r="AI23" s="12">
+        <v>64.085359999999994</v>
+      </c>
+      <c r="AJ23" s="12">
+        <v>60.218829999999997</v>
       </c>
     </row>
     <row r="24" spans="3:36" x14ac:dyDescent="0.25">
@@ -9860,14 +10051,35 @@
         <v>1</v>
       </c>
       <c r="T24" s="5">
-        <f t="shared" si="3"/>
-        <v>6871.8339999999998</v>
+        <f t="shared" si="15"/>
+        <v>7559.0174000000006</v>
       </c>
       <c r="U24" s="4">
-        <f t="shared" si="4"/>
-        <v>1.0030240929057754</v>
+        <f t="shared" si="16"/>
+        <v>0.82093099355070454</v>
       </c>
       <c r="AC24" s="6"/>
+      <c r="AD24" s="11">
+        <v>5</v>
+      </c>
+      <c r="AE24" s="12">
+        <v>2721.346</v>
+      </c>
+      <c r="AF24" s="12">
+        <v>727.79679999999996</v>
+      </c>
+      <c r="AG24" s="12">
+        <v>4229.0510000000004</v>
+      </c>
+      <c r="AH24" s="12">
+        <v>2.0909489999999999E-2</v>
+      </c>
+      <c r="AI24" s="12">
+        <v>30.726610000000001</v>
+      </c>
+      <c r="AJ24" s="12">
+        <v>95.117649999999998</v>
+      </c>
     </row>
     <row r="25" spans="3:36" x14ac:dyDescent="0.25">
       <c r="P25">
@@ -9883,12 +10095,33 @@
         <v>1</v>
       </c>
       <c r="T25" s="5">
-        <f t="shared" si="3"/>
-        <v>792.69470000000001</v>
+        <f t="shared" si="15"/>
+        <v>871.96417000000008</v>
       </c>
       <c r="U25" s="4">
-        <f t="shared" si="4"/>
-        <v>16.364123999377142</v>
+        <f t="shared" si="16"/>
+        <v>14.785567272161037</v>
+      </c>
+      <c r="AD25" s="11">
+        <v>6</v>
+      </c>
+      <c r="AE25" s="12">
+        <v>2721.3870000000002</v>
+      </c>
+      <c r="AF25" s="12">
+        <v>727.7704</v>
+      </c>
+      <c r="AG25" s="12">
+        <v>4229.0780000000004</v>
+      </c>
+      <c r="AH25" s="12">
+        <v>2.0904369999999999E-2</v>
+      </c>
+      <c r="AI25" s="12">
+        <v>30.727209999999999</v>
+      </c>
+      <c r="AJ25" s="12">
+        <v>95.118539999999996</v>
       </c>
     </row>
     <row r="26" spans="3:36" x14ac:dyDescent="0.25">
@@ -9906,12 +10139,33 @@
         <v>1</v>
       </c>
       <c r="T26" s="5">
-        <f t="shared" si="3"/>
-        <v>2721.346</v>
+        <f t="shared" si="15"/>
+        <v>2993.4806000000003</v>
       </c>
       <c r="U26" s="4">
-        <f t="shared" si="4"/>
-        <v>4.0579562703342624</v>
+        <f t="shared" si="16"/>
+        <v>3.5981420639402382</v>
+      </c>
+      <c r="AD26" s="11">
+        <v>7</v>
+      </c>
+      <c r="AE26" s="12">
+        <v>2721.4349999999999</v>
+      </c>
+      <c r="AF26" s="12">
+        <v>727.79629999999997</v>
+      </c>
+      <c r="AG26" s="12">
+        <v>4229.0290000000005</v>
+      </c>
+      <c r="AH26" s="12">
+        <v>2.0904470000000001E-2</v>
+      </c>
+      <c r="AI26" s="12">
+        <v>30.727609999999999</v>
+      </c>
+      <c r="AJ26" s="12">
+        <v>95.120660000000001</v>
       </c>
     </row>
     <row r="27" spans="3:36" x14ac:dyDescent="0.25">
@@ -9932,12 +10186,33 @@
         <v>1</v>
       </c>
       <c r="T27" s="5">
-        <f t="shared" si="3"/>
-        <v>2721.3870000000002</v>
+        <f t="shared" si="15"/>
+        <v>2993.5257000000006</v>
       </c>
       <c r="U27" s="4">
-        <f t="shared" si="4"/>
-        <v>4.0578800679392764</v>
+        <f t="shared" si="16"/>
+        <v>3.5980727890357054</v>
+      </c>
+      <c r="AD27" s="11">
+        <v>8</v>
+      </c>
+      <c r="AE27" s="12">
+        <v>792.69799999999998</v>
+      </c>
+      <c r="AF27" s="12">
+        <v>780.79219999999998</v>
+      </c>
+      <c r="AG27" s="12">
+        <v>1320.153</v>
+      </c>
+      <c r="AH27" s="12">
+        <v>6.4325759999999997E-3</v>
+      </c>
+      <c r="AI27" s="12">
+        <v>64.087050000000005</v>
+      </c>
+      <c r="AJ27" s="12">
+        <v>60.219909999999999</v>
       </c>
     </row>
     <row r="28" spans="3:36" x14ac:dyDescent="0.25">
@@ -9959,12 +10234,33 @@
         <v>1</v>
       </c>
       <c r="T28" s="5">
-        <f t="shared" si="3"/>
-        <v>2721.4349999999999</v>
+        <f t="shared" si="15"/>
+        <v>2993.5785000000001</v>
       </c>
       <c r="U28" s="4">
-        <f t="shared" si="4"/>
-        <v>4.0577908582968414</v>
+        <f t="shared" si="16"/>
+        <v>3.5979916893607644</v>
+      </c>
+      <c r="AD28" s="11">
+        <v>9</v>
+      </c>
+      <c r="AE28" s="12">
+        <v>792.65930000000003</v>
+      </c>
+      <c r="AF28" s="12">
+        <v>780.76639999999998</v>
+      </c>
+      <c r="AG28" s="12">
+        <v>1320.1869999999999</v>
+      </c>
+      <c r="AH28" s="12">
+        <v>6.4327259999999997E-3</v>
+      </c>
+      <c r="AI28" s="12">
+        <v>64.086579999999998</v>
+      </c>
+      <c r="AJ28" s="12">
+        <v>60.219180000000001</v>
       </c>
     </row>
     <row r="29" spans="3:36" x14ac:dyDescent="0.25">
@@ -9981,12 +10277,33 @@
         <v>1</v>
       </c>
       <c r="T29" s="5">
-        <f t="shared" si="3"/>
-        <v>792.69799999999998</v>
+        <f t="shared" si="15"/>
+        <v>871.96780000000001</v>
       </c>
       <c r="U29" s="4">
-        <f t="shared" si="4"/>
-        <v>16.364051712567793</v>
+        <f t="shared" si="16"/>
+        <v>14.785501556879813</v>
+      </c>
+      <c r="AD29" s="11">
+        <v>10</v>
+      </c>
+      <c r="AE29" s="12">
+        <v>2721.4070000000002</v>
+      </c>
+      <c r="AF29" s="12">
+        <v>727.8211</v>
+      </c>
+      <c r="AG29" s="12">
+        <v>4229.0140000000001</v>
+      </c>
+      <c r="AH29" s="12">
+        <v>2.0908960000000001E-2</v>
+      </c>
+      <c r="AI29" s="12">
+        <v>30.72701</v>
+      </c>
+      <c r="AJ29" s="12">
+        <v>95.120009999999994</v>
       </c>
     </row>
     <row r="30" spans="3:36" x14ac:dyDescent="0.25">
@@ -10003,14 +10320,35 @@
         <v>1</v>
       </c>
       <c r="T30" s="5">
-        <f t="shared" si="3"/>
-        <v>792.65930000000003</v>
+        <f t="shared" si="15"/>
+        <v>871.92523000000006</v>
       </c>
       <c r="U30" s="4">
-        <f t="shared" si="4"/>
-        <v>16.364899477554939</v>
+        <f t="shared" si="16"/>
+        <v>14.786272252322672</v>
       </c>
       <c r="W30" s="2"/>
+      <c r="AD30" s="11">
+        <v>11</v>
+      </c>
+      <c r="AE30" s="12">
+        <v>6872.0730000000003</v>
+      </c>
+      <c r="AF30" s="12">
+        <v>1028.836</v>
+      </c>
+      <c r="AG30" s="12">
+        <v>843.62009999999998</v>
+      </c>
+      <c r="AH30" s="12">
+        <v>5.7542100000000001E-3</v>
+      </c>
+      <c r="AI30" s="12">
+        <v>211.22550000000001</v>
+      </c>
+      <c r="AJ30" s="12">
+        <v>5.8268649999999997</v>
+      </c>
     </row>
     <row r="31" spans="3:36" x14ac:dyDescent="0.25">
       <c r="P31">
@@ -10026,12 +10364,33 @@
         <v>1</v>
       </c>
       <c r="T31" s="5">
-        <f t="shared" si="3"/>
-        <v>2721.4070000000002</v>
+        <f t="shared" si="15"/>
+        <v>2993.5477000000005</v>
       </c>
       <c r="U31" s="4">
-        <f t="shared" si="4"/>
-        <v>4.0578428968724864</v>
+        <f t="shared" si="16"/>
+        <v>3.5980389971568059</v>
+      </c>
+      <c r="AD31" s="11">
+        <v>12</v>
+      </c>
+      <c r="AE31" s="12">
+        <v>6872.1959999999999</v>
+      </c>
+      <c r="AF31" s="12">
+        <v>1028.846</v>
+      </c>
+      <c r="AG31" s="12">
+        <v>843.64099999999996</v>
+      </c>
+      <c r="AH31" s="12">
+        <v>5.7485100000000001E-3</v>
+      </c>
+      <c r="AI31" s="12">
+        <v>211.22749999999999</v>
+      </c>
+      <c r="AJ31" s="12">
+        <v>5.8286559999999996</v>
       </c>
     </row>
     <row r="32" spans="3:36" x14ac:dyDescent="0.25">
@@ -10048,12 +10407,12 @@
         <v>1</v>
       </c>
       <c r="T32" s="5">
-        <f t="shared" si="3"/>
-        <v>6872.0730000000003</v>
+        <f t="shared" si="15"/>
+        <v>7559.2803000000013</v>
       </c>
       <c r="U32" s="4">
-        <f t="shared" si="4"/>
-        <v>1.0029544308462763</v>
+        <f t="shared" si="16"/>
+        <v>0.82086766440570558</v>
       </c>
     </row>
     <row r="33" spans="16:23" x14ac:dyDescent="0.25">
@@ -10070,12 +10429,12 @@
         <v>1</v>
       </c>
       <c r="T33" s="5">
-        <f t="shared" si="3"/>
-        <v>6872.1959999999999</v>
+        <f t="shared" si="15"/>
+        <v>7559.4156000000003</v>
       </c>
       <c r="U33" s="4">
-        <f t="shared" si="4"/>
-        <v>1.0029185815493422</v>
+        <f t="shared" si="16"/>
+        <v>0.82083507413576573</v>
       </c>
     </row>
     <row r="36" spans="16:23" x14ac:dyDescent="0.25">
@@ -10128,15 +10487,15 @@
       </c>
       <c r="U38" s="5">
         <f>ABS(AE6)</f>
-        <v>792.65679999999998</v>
+        <v>871.92248000000006</v>
       </c>
       <c r="V38" s="5">
         <f>SQRT(AF6^2 + AG6^2)</f>
-        <v>1533.8040629658144</v>
+        <v>1687.1844692623959</v>
       </c>
       <c r="W38" s="4">
         <f>(((Q38-(1-R38)*U38)*S38)/(T38*V38))-1</f>
-        <v>0.16227028133199162</v>
+        <v>5.015280953855128E-2</v>
       </c>
     </row>
     <row r="39" spans="16:23" x14ac:dyDescent="0.25">
@@ -10156,16 +10515,16 @@
         <v>1.4</v>
       </c>
       <c r="U39" s="5">
-        <f t="shared" ref="U39:U49" si="5">ABS(AE7)</f>
-        <v>6871.9610000000002</v>
+        <f t="shared" ref="U39:U49" si="17">ABS(AE7)</f>
+        <v>7559.1571000000013</v>
       </c>
       <c r="V39" s="5">
-        <f t="shared" ref="V39:V49" si="6">SQRT(AF7^2 + AG7^2)</f>
-        <v>1330.6047445387417</v>
+        <f t="shared" ref="V39:V49" si="18">SQRT(AF7^2 + AG7^2)</f>
+        <v>1463.6652189926158</v>
       </c>
       <c r="W39" s="4">
-        <f t="shared" ref="W39:W49" si="7">(((Q39-(1-R39)*U39)*S39)/(T39*V39))-1</f>
-        <v>-0.28812459735060325</v>
+        <f t="shared" ref="W39:W49" si="19">(((Q39-(1-R39)*U39)*S39)/(T39*V39))-1</f>
+        <v>-0.4173637530593457</v>
       </c>
     </row>
     <row r="40" spans="16:23" x14ac:dyDescent="0.25">
@@ -10185,16 +10544,16 @@
         <v>1.4</v>
       </c>
       <c r="U40" s="5">
-        <f t="shared" si="5"/>
-        <v>6871.8339999999998</v>
+        <f t="shared" si="17"/>
+        <v>7559.0174000000006</v>
       </c>
       <c r="V40" s="5">
-        <f t="shared" si="6"/>
-        <v>1330.5975535282785</v>
+        <f t="shared" si="18"/>
+        <v>1463.6573088811065</v>
       </c>
       <c r="W40" s="4">
-        <f t="shared" si="7"/>
-        <v>-0.28810763314382226</v>
+        <f t="shared" si="19"/>
+        <v>-0.41734748730576621</v>
       </c>
     </row>
     <row r="41" spans="16:23" x14ac:dyDescent="0.25">
@@ -10215,15 +10574,15 @@
       </c>
       <c r="U41" s="5">
         <f>ABS(AE9)</f>
-        <v>792.69470000000001</v>
+        <v>871.96417000000008</v>
       </c>
       <c r="V41" s="5">
-        <f t="shared" si="6"/>
-        <v>1533.7945729516746</v>
+        <f t="shared" si="18"/>
+        <v>1687.1740302468422</v>
       </c>
       <c r="W41" s="4">
-        <f t="shared" si="7"/>
-        <v>0.16227407676760564</v>
+        <f t="shared" si="19"/>
+        <v>5.0155911272145692E-2</v>
       </c>
     </row>
     <row r="42" spans="16:23" x14ac:dyDescent="0.25">
@@ -10243,16 +10602,16 @@
         <v>1.4</v>
       </c>
       <c r="U42" s="5">
-        <f t="shared" si="5"/>
-        <v>2721.346</v>
+        <f t="shared" si="17"/>
+        <v>2993.4806000000003</v>
       </c>
       <c r="V42" s="5">
-        <f t="shared" si="6"/>
-        <v>4291.2190042796983</v>
+        <f t="shared" si="18"/>
+        <v>4720.3409047076684</v>
       </c>
       <c r="W42" s="4">
-        <f t="shared" si="7"/>
-        <v>-0.64633874971840144</v>
+        <f t="shared" si="19"/>
+        <v>-0.68641273186536944</v>
       </c>
     </row>
     <row r="43" spans="16:23" x14ac:dyDescent="0.25">
@@ -10272,16 +10631,16 @@
         <v>1.4</v>
       </c>
       <c r="U43" s="5">
-        <f t="shared" si="5"/>
-        <v>2721.3870000000002</v>
+        <f t="shared" si="17"/>
+        <v>2993.5257000000006</v>
       </c>
       <c r="V43" s="5">
-        <f t="shared" si="6"/>
-        <v>4291.2411357555011</v>
+        <f t="shared" si="18"/>
+        <v>4720.3652493310519</v>
       </c>
       <c r="W43" s="4">
-        <f t="shared" si="7"/>
-        <v>-0.64634188671686077</v>
+        <f t="shared" si="19"/>
+        <v>-0.68641566218787231</v>
       </c>
     </row>
     <row r="44" spans="16:23" x14ac:dyDescent="0.25">
@@ -10301,16 +10660,16 @@
         <v>1.4</v>
       </c>
       <c r="U44" s="5">
-        <f t="shared" si="5"/>
-        <v>2721.4349999999999</v>
+        <f t="shared" si="17"/>
+        <v>2993.5785000000001</v>
       </c>
       <c r="V44" s="5">
-        <f t="shared" si="6"/>
-        <v>4291.1972381999285</v>
+        <f t="shared" si="18"/>
+        <v>4720.3169620199214</v>
       </c>
       <c r="W44" s="4">
-        <f t="shared" si="7"/>
-        <v>-0.6463398061424297</v>
+        <f t="shared" si="19"/>
+        <v>-0.68641399155516314</v>
       </c>
     </row>
     <row r="45" spans="16:23" x14ac:dyDescent="0.25">
@@ -10330,16 +10689,16 @@
         <v>1.4</v>
       </c>
       <c r="U45" s="5">
-        <f t="shared" si="5"/>
-        <v>792.69799999999998</v>
+        <f t="shared" si="17"/>
+        <v>871.96780000000001</v>
       </c>
       <c r="V45" s="5">
-        <f t="shared" si="6"/>
-        <v>1533.7667368246841</v>
+        <f t="shared" si="18"/>
+        <v>1687.1434105071528</v>
       </c>
       <c r="W45" s="4">
-        <f t="shared" si="7"/>
-        <v>0.16229487503747753</v>
+        <f t="shared" si="19"/>
+        <v>5.0174674724455137E-2</v>
       </c>
     </row>
     <row r="46" spans="16:23" x14ac:dyDescent="0.25">
@@ -10359,16 +10718,16 @@
         <v>1.4</v>
       </c>
       <c r="U46" s="5">
-        <f t="shared" si="5"/>
-        <v>792.65930000000003</v>
+        <f t="shared" si="17"/>
+        <v>871.92523000000006</v>
       </c>
       <c r="V46" s="5">
-        <f t="shared" si="6"/>
-        <v>1533.7828680546538</v>
+        <f t="shared" si="18"/>
+        <v>1687.1611548601193</v>
       </c>
       <c r="W46" s="4">
-        <f t="shared" si="7"/>
-        <v>0.16228611841325957</v>
+        <f t="shared" si="19"/>
+        <v>5.0167097300222618E-2</v>
       </c>
     </row>
     <row r="47" spans="16:23" x14ac:dyDescent="0.25">
@@ -10388,16 +10747,16 @@
         <v>1.4</v>
       </c>
       <c r="U47" s="5">
-        <f t="shared" si="5"/>
-        <v>2721.4070000000002</v>
+        <f t="shared" si="17"/>
+        <v>2993.5477000000005</v>
       </c>
       <c r="V47" s="5">
-        <f t="shared" si="6"/>
-        <v>4291.1866617290389</v>
+        <f t="shared" si="18"/>
+        <v>4720.3053279019432</v>
       </c>
       <c r="W47" s="4">
-        <f t="shared" si="7"/>
-        <v>-0.64633803775588683</v>
+        <f t="shared" si="19"/>
+        <v>-0.68641232193930757</v>
       </c>
     </row>
     <row r="48" spans="16:23" x14ac:dyDescent="0.25">
@@ -10417,16 +10776,16 @@
         <v>1.4</v>
       </c>
       <c r="U48" s="5">
-        <f t="shared" si="5"/>
-        <v>6872.0730000000003</v>
+        <f t="shared" si="17"/>
+        <v>7559.2803000000013</v>
       </c>
       <c r="V48" s="5">
-        <f t="shared" si="6"/>
-        <v>1330.4880262595414</v>
+        <f t="shared" si="18"/>
+        <v>1463.5368288854957</v>
       </c>
       <c r="W48" s="4">
-        <f t="shared" si="7"/>
-        <v>-0.28807371611705135</v>
+        <f t="shared" si="19"/>
+        <v>-0.4173242094489531</v>
       </c>
     </row>
     <row r="49" spans="16:29" x14ac:dyDescent="0.25">
@@ -10446,16 +10805,16 @@
         <v>1.4</v>
       </c>
       <c r="U49" s="5">
-        <f t="shared" si="5"/>
-        <v>6872.1959999999999</v>
+        <f t="shared" si="17"/>
+        <v>7559.4156000000003</v>
       </c>
       <c r="V49" s="5">
-        <f t="shared" si="6"/>
-        <v>1330.5090110919955</v>
+        <f t="shared" si="18"/>
+        <v>1463.5599122011954</v>
       </c>
       <c r="W49" s="4">
-        <f t="shared" si="7"/>
-        <v>-0.28809764933945503</v>
+        <f t="shared" si="19"/>
+        <v>-0.41734610412826956</v>
       </c>
     </row>
     <row r="50" spans="16:29" x14ac:dyDescent="0.25">
@@ -10546,19 +10905,19 @@
       </c>
       <c r="Z54" s="5">
         <f>ABS(AE6)</f>
-        <v>792.65679999999998</v>
+        <v>871.92248000000006</v>
       </c>
       <c r="AA54" s="5">
         <f>SQRT(AF6^2 + AG6^2)</f>
-        <v>1533.8040629658144</v>
+        <v>1687.1844692623959</v>
       </c>
       <c r="AB54" s="2">
         <f>(1/(SQRT(((AA54*T54)/(V54*Q54))^2 + ( (R54+S54*Z54*T54)/(Q54*U54))^2)))-1</f>
-        <v>0.56888002183799102</v>
+        <v>0.56630344402686061</v>
       </c>
       <c r="AC54" s="2">
         <f>(1/(SQRT(((AA54*W54)/(V54*Q54))^2 + ( (R54+S54*Z54*W54)/(Q54*X54))^2)))-1</f>
-        <v>0.79473549240890939</v>
+        <v>0.787490807386934</v>
       </c>
     </row>
     <row r="55" spans="16:29" x14ac:dyDescent="0.25">
@@ -10593,20 +10952,20 @@
         <v>655000000</v>
       </c>
       <c r="Z55" s="5">
-        <f t="shared" ref="Z55:Z65" si="8">ABS(AE7)</f>
-        <v>6871.9610000000002</v>
+        <f t="shared" ref="Z55:Z65" si="20">ABS(AE7)</f>
+        <v>7559.1571000000013</v>
       </c>
       <c r="AA55" s="5">
-        <f t="shared" ref="AA55:AA65" si="9">SQRT(AF7^2 + AG7^2)</f>
-        <v>1330.6047445387417</v>
+        <f t="shared" ref="AA55:AA65" si="21">SQRT(AF7^2 + AG7^2)</f>
+        <v>1463.6652189926158</v>
       </c>
       <c r="AB55" s="2">
-        <f t="shared" ref="AB55:AB65" si="10">(1/(SQRT(((AA55*T55)/(V55*Q55))^2 + ( (R55+S55*Z55*T55)/(Q55*U55))^2)))-1</f>
-        <v>0.55552548606165364</v>
+        <f t="shared" ref="AB55:AB65" si="22">(1/(SQRT(((AA55*T55)/(V55*Q55))^2 + ( (R55+S55*Z55*T55)/(Q55*U55))^2)))-1</f>
+        <v>0.55198958893603756</v>
       </c>
       <c r="AC55" s="2">
-        <f t="shared" ref="AC55:AC65" si="11">(1/(SQRT(((AA55*W55)/(V55*Q55))^2 + ( (R55+S55*Z55*W55)/(Q55*X55))^2)))-1</f>
-        <v>0.777601057443434</v>
+        <f t="shared" ref="AC55:AC65" si="23">(1/(SQRT(((AA55*W55)/(V55*Q55))^2 + ( (R55+S55*Z55*W55)/(Q55*X55))^2)))-1</f>
+        <v>0.76973356711329011</v>
       </c>
     </row>
     <row r="56" spans="16:29" x14ac:dyDescent="0.25">
@@ -10641,20 +11000,20 @@
         <v>655000000</v>
       </c>
       <c r="Z56" s="5">
-        <f t="shared" si="8"/>
-        <v>6871.8339999999998</v>
+        <f t="shared" si="20"/>
+        <v>7559.0174000000006</v>
       </c>
       <c r="AA56" s="5">
-        <f t="shared" si="9"/>
-        <v>1330.5975535282785</v>
+        <f t="shared" si="21"/>
+        <v>1463.6573088811065</v>
       </c>
       <c r="AB56" s="2">
-        <f t="shared" si="10"/>
-        <v>0.55552590963750492</v>
+        <f t="shared" si="22"/>
+        <v>0.55199006190877653</v>
       </c>
       <c r="AC56" s="2">
-        <f t="shared" si="11"/>
-        <v>0.77760184231521978</v>
+        <f t="shared" si="23"/>
+        <v>0.76973444841281546</v>
       </c>
     </row>
     <row r="57" spans="16:29" x14ac:dyDescent="0.25">
@@ -10689,20 +11048,20 @@
         <v>655000000</v>
       </c>
       <c r="Z57" s="5">
-        <f t="shared" si="8"/>
-        <v>792.69470000000001</v>
+        <f t="shared" si="20"/>
+        <v>871.96417000000008</v>
       </c>
       <c r="AA57" s="5">
-        <f t="shared" si="9"/>
-        <v>1533.7945729516746</v>
+        <f t="shared" si="21"/>
+        <v>1687.1740302468422</v>
       </c>
       <c r="AB57" s="2">
-        <f t="shared" si="10"/>
-        <v>0.56888006034930871</v>
+        <f t="shared" si="22"/>
+        <v>0.56630350146017294</v>
       </c>
       <c r="AC57" s="2">
-        <f t="shared" si="11"/>
-        <v>0.79473574408522563</v>
+        <f t="shared" si="23"/>
+        <v>0.78749112541349353</v>
       </c>
     </row>
     <row r="58" spans="16:29" x14ac:dyDescent="0.25">
@@ -10737,20 +11096,20 @@
         <v>655000000</v>
       </c>
       <c r="Z58" s="5">
-        <f t="shared" si="8"/>
-        <v>2721.346</v>
+        <f t="shared" si="20"/>
+        <v>2993.4806000000003</v>
       </c>
       <c r="AA58" s="5">
-        <f t="shared" si="9"/>
-        <v>4291.2190042796983</v>
+        <f t="shared" si="21"/>
+        <v>4720.3409047076684</v>
       </c>
       <c r="AB58" s="2">
-        <f t="shared" si="10"/>
-        <v>0.49257816539216526</v>
+        <f t="shared" si="22"/>
+        <v>0.47624008726286338</v>
       </c>
       <c r="AC58" s="2">
-        <f t="shared" si="11"/>
-        <v>0.59819539553960888</v>
+        <f t="shared" si="23"/>
+        <v>0.56032201473038534</v>
       </c>
     </row>
     <row r="59" spans="16:29" x14ac:dyDescent="0.25">
@@ -10785,20 +11144,20 @@
         <v>655000000</v>
       </c>
       <c r="Z59" s="5">
-        <f t="shared" si="8"/>
-        <v>2721.3870000000002</v>
+        <f t="shared" si="20"/>
+        <v>2993.5257000000006</v>
       </c>
       <c r="AA59" s="5">
-        <f t="shared" si="9"/>
-        <v>4291.2411357555011</v>
+        <f t="shared" si="21"/>
+        <v>4720.3652493310519</v>
       </c>
       <c r="AB59" s="2">
-        <f t="shared" si="10"/>
-        <v>0.49257728577639748</v>
+        <f t="shared" si="22"/>
+        <v>0.47623906751864697</v>
       </c>
       <c r="AC59" s="2">
-        <f t="shared" si="11"/>
-        <v>0.59819338512314291</v>
+        <f t="shared" si="23"/>
+        <v>0.56031976335706579</v>
       </c>
     </row>
     <row r="60" spans="16:29" x14ac:dyDescent="0.25">
@@ -10833,20 +11192,20 @@
         <v>655000000</v>
       </c>
       <c r="Z60" s="5">
-        <f t="shared" si="8"/>
-        <v>2721.4349999999999</v>
+        <f t="shared" si="20"/>
+        <v>2993.5785000000001</v>
       </c>
       <c r="AA60" s="5">
-        <f t="shared" si="9"/>
-        <v>4291.1972381999285</v>
+        <f t="shared" si="21"/>
+        <v>4720.3169620199214</v>
       </c>
       <c r="AB60" s="2">
-        <f t="shared" si="10"/>
-        <v>0.49257873210062009</v>
+        <f t="shared" si="22"/>
+        <v>0.47624077245977348</v>
       </c>
       <c r="AC60" s="2">
-        <f t="shared" si="11"/>
-        <v>0.59819698953545664</v>
+        <f t="shared" si="23"/>
+        <v>0.56032383639061512</v>
       </c>
     </row>
     <row r="61" spans="16:29" x14ac:dyDescent="0.25">
@@ -10881,20 +11240,20 @@
         <v>655000000</v>
       </c>
       <c r="Z61" s="5">
-        <f t="shared" si="8"/>
-        <v>792.69799999999998</v>
+        <f t="shared" si="20"/>
+        <v>871.96780000000001</v>
       </c>
       <c r="AA61" s="5">
-        <f t="shared" si="9"/>
-        <v>1533.7667368246841</v>
+        <f t="shared" si="21"/>
+        <v>1687.1434105071528</v>
       </c>
       <c r="AB61" s="2">
-        <f t="shared" si="10"/>
-        <v>0.56888046137991743</v>
+        <f t="shared" si="22"/>
+        <v>0.56630398528376213</v>
       </c>
       <c r="AC61" s="2">
-        <f t="shared" si="11"/>
-        <v>0.79473693286111202</v>
+        <f t="shared" si="23"/>
+        <v>0.78749254797899826</v>
       </c>
     </row>
     <row r="62" spans="16:29" x14ac:dyDescent="0.25">
@@ -10929,20 +11288,20 @@
         <v>655000000</v>
       </c>
       <c r="Z62" s="5">
-        <f t="shared" si="8"/>
-        <v>792.65930000000003</v>
+        <f t="shared" si="20"/>
+        <v>871.92523000000006</v>
       </c>
       <c r="AA62" s="5">
-        <f t="shared" si="9"/>
-        <v>1533.7828680546538</v>
+        <f t="shared" si="21"/>
+        <v>1687.1611548601193</v>
       </c>
       <c r="AB62" s="2">
-        <f t="shared" si="10"/>
-        <v>0.56888032722608317</v>
+        <f t="shared" si="22"/>
+        <v>0.56630381245867611</v>
       </c>
       <c r="AC62" s="2">
-        <f t="shared" si="11"/>
-        <v>0.79473639762355042</v>
+        <f t="shared" si="23"/>
+        <v>0.78749189061886304</v>
       </c>
     </row>
     <row r="63" spans="16:29" x14ac:dyDescent="0.25">
@@ -10977,20 +11336,20 @@
         <v>655000000</v>
       </c>
       <c r="Z63" s="5">
-        <f t="shared" si="8"/>
-        <v>2721.4070000000002</v>
+        <f t="shared" si="20"/>
+        <v>2993.5477000000005</v>
       </c>
       <c r="AA63" s="5">
-        <f t="shared" si="9"/>
-        <v>4291.1866617290389</v>
+        <f t="shared" si="21"/>
+        <v>4720.3053279019432</v>
       </c>
       <c r="AB63" s="2">
-        <f t="shared" si="10"/>
-        <v>0.49257917185605615</v>
+        <f t="shared" si="22"/>
+        <v>0.47624128043767544</v>
       </c>
       <c r="AC63" s="2">
-        <f t="shared" si="11"/>
-        <v>0.59819797520728102</v>
+        <f t="shared" si="23"/>
+        <v>0.56032493782012849</v>
       </c>
     </row>
     <row r="64" spans="16:29" x14ac:dyDescent="0.25">
@@ -11025,20 +11384,20 @@
         <v>655000000</v>
       </c>
       <c r="Z64" s="5">
-        <f t="shared" si="8"/>
-        <v>6872.0730000000003</v>
+        <f t="shared" si="20"/>
+        <v>7559.2803000000013</v>
       </c>
       <c r="AA64" s="5">
-        <f t="shared" si="9"/>
-        <v>1330.4880262595414</v>
+        <f t="shared" si="21"/>
+        <v>1463.5368288854957</v>
       </c>
       <c r="AB64" s="2">
-        <f t="shared" si="10"/>
-        <v>0.55552664450539946</v>
+        <f t="shared" si="22"/>
+        <v>0.55199101292328545</v>
       </c>
       <c r="AC64" s="2">
-        <f t="shared" si="11"/>
-        <v>0.77760484637258331</v>
+        <f t="shared" si="23"/>
+        <v>0.7697381403626935</v>
       </c>
     </row>
     <row r="65" spans="16:29" x14ac:dyDescent="0.25">
@@ -11073,20 +11432,20 @@
         <v>655000000</v>
       </c>
       <c r="Z65" s="5">
-        <f t="shared" si="8"/>
-        <v>6872.1959999999999</v>
+        <f t="shared" si="20"/>
+        <v>7559.4156000000003</v>
       </c>
       <c r="AA65" s="5">
-        <f t="shared" si="9"/>
-        <v>1330.5090110919955</v>
+        <f t="shared" si="21"/>
+        <v>1463.5599122011954</v>
       </c>
       <c r="AB65" s="2">
-        <f t="shared" si="10"/>
-        <v>0.55552605974223135</v>
+        <f t="shared" si="22"/>
+        <v>0.55199034510470701</v>
       </c>
       <c r="AC65" s="2">
-        <f t="shared" si="11"/>
-        <v>0.77760357572012162</v>
+        <f t="shared" si="23"/>
+        <v>0.76973667727842643</v>
       </c>
     </row>
   </sheetData>
@@ -11157,11 +11516,346 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D9AC94C-39F4-4F51-B031-717BAE489E8A}">
+  <dimension ref="D6:J19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D6" sqref="D6:J19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="15" customWidth="1"/>
+    <col min="5" max="5" width="13.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="6" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="E6" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="F6" s="13"/>
+      <c r="G6" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="H6" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="I6" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="J6" s="13"/>
+    </row>
+    <row r="7" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="E7" t="s">
+        <v>28</v>
+      </c>
+      <c r="F7" t="s">
+        <v>29</v>
+      </c>
+      <c r="G7" t="s">
+        <v>27</v>
+      </c>
+      <c r="H7" t="s">
+        <v>34</v>
+      </c>
+      <c r="I7" t="s">
+        <v>38</v>
+      </c>
+      <c r="J7" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="8" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D8" s="11">
+        <v>1</v>
+      </c>
+      <c r="E8" s="12">
+        <v>0.58007869829401648</v>
+      </c>
+      <c r="F8" s="12">
+        <v>0.82846356899657292</v>
+      </c>
+      <c r="G8" s="12">
+        <v>14.786322041437746</v>
+      </c>
+      <c r="H8" s="12">
+        <v>5.015280953855128E-2</v>
+      </c>
+      <c r="I8" s="12">
+        <v>0.56630344402686061</v>
+      </c>
+      <c r="J8" s="12">
+        <v>0.787490807386934</v>
+      </c>
+    </row>
+    <row r="9" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D9" s="11">
+        <v>2</v>
+      </c>
+      <c r="E9" s="12">
+        <v>0.56204036376867927</v>
+      </c>
+      <c r="F9" s="12">
+        <v>0.79939015226747911</v>
+      </c>
+      <c r="G9" s="12">
+        <v>0.82089734111347723</v>
+      </c>
+      <c r="H9" s="12">
+        <v>-0.4173637530593457</v>
+      </c>
+      <c r="I9" s="12">
+        <v>0.55198958893603756</v>
+      </c>
+      <c r="J9" s="12">
+        <v>0.76973356711329011</v>
+      </c>
+    </row>
+    <row r="10" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D10" s="11">
+        <v>3</v>
+      </c>
+      <c r="E10" s="12">
+        <v>0.56204073629753593</v>
+      </c>
+      <c r="F10" s="12">
+        <v>0.79939074997000437</v>
+      </c>
+      <c r="G10" s="12">
+        <v>0.82093099355070454</v>
+      </c>
+      <c r="H10" s="12">
+        <v>-0.41734748730576621</v>
+      </c>
+      <c r="I10" s="12">
+        <v>0.55199006190877653</v>
+      </c>
+      <c r="J10" s="12">
+        <v>0.76973444841281546</v>
+      </c>
+    </row>
+    <row r="11" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D11" s="11">
+        <v>4</v>
+      </c>
+      <c r="E11" s="12">
+        <v>0.58007858453961592</v>
+      </c>
+      <c r="F11" s="12">
+        <v>0.82846338481662918</v>
+      </c>
+      <c r="G11" s="12">
+        <v>14.785567272161037</v>
+      </c>
+      <c r="H11" s="12">
+        <v>5.0155911272145692E-2</v>
+      </c>
+      <c r="I11" s="12">
+        <v>0.56630350146017294</v>
+      </c>
+      <c r="J11" s="12">
+        <v>0.78749112541349353</v>
+      </c>
+    </row>
+    <row r="12" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D12" s="11">
+        <v>5</v>
+      </c>
+      <c r="E12" s="12">
+        <v>0.57431099267852881</v>
+      </c>
+      <c r="F12" s="12">
+        <v>0.8191386534085936</v>
+      </c>
+      <c r="G12" s="12">
+        <v>3.5981420639402382</v>
+      </c>
+      <c r="H12" s="12">
+        <v>-0.68641273186536944</v>
+      </c>
+      <c r="I12" s="12">
+        <v>0.47624008726286338</v>
+      </c>
+      <c r="J12" s="12">
+        <v>0.56032201473038534</v>
+      </c>
+    </row>
+    <row r="13" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D13" s="11">
+        <v>6</v>
+      </c>
+      <c r="E13" s="12">
+        <v>0.57431087051643437</v>
+      </c>
+      <c r="F13" s="12">
+        <v>0.81913845619086145</v>
+      </c>
+      <c r="G13" s="12">
+        <v>3.5980727890357054</v>
+      </c>
+      <c r="H13" s="12">
+        <v>-0.68641566218787231</v>
+      </c>
+      <c r="I13" s="12">
+        <v>0.47623906751864697</v>
+      </c>
+      <c r="J13" s="12">
+        <v>0.56031976335706579</v>
+      </c>
+    </row>
+    <row r="14" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D14" s="11">
+        <v>7</v>
+      </c>
+      <c r="E14" s="12">
+        <v>0.57431072749742129</v>
+      </c>
+      <c r="F14" s="12">
+        <v>0.81913822530186375</v>
+      </c>
+      <c r="G14" s="12">
+        <v>3.5979916893607644</v>
+      </c>
+      <c r="H14" s="12">
+        <v>-0.68641399155516314</v>
+      </c>
+      <c r="I14" s="12">
+        <v>0.47624077245977348</v>
+      </c>
+      <c r="J14" s="12">
+        <v>0.56032383639061512</v>
+      </c>
+    </row>
+    <row r="15" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D15" s="11">
+        <v>8</v>
+      </c>
+      <c r="E15" s="12">
+        <v>0.58007857463488</v>
+      </c>
+      <c r="F15" s="12">
+        <v>0.82846336877985483</v>
+      </c>
+      <c r="G15" s="12">
+        <v>14.785501556879813</v>
+      </c>
+      <c r="H15" s="12">
+        <v>5.0174674724455137E-2</v>
+      </c>
+      <c r="I15" s="12">
+        <v>0.56630398528376213</v>
+      </c>
+      <c r="J15" s="12">
+        <v>0.78749254797899826</v>
+      </c>
+    </row>
+    <row r="16" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D16" s="11">
+        <v>9</v>
+      </c>
+      <c r="E16" s="12">
+        <v>0.58007869079042762</v>
+      </c>
+      <c r="F16" s="12">
+        <v>0.82846355684749917</v>
+      </c>
+      <c r="G16" s="12">
+        <v>14.786272252322672</v>
+      </c>
+      <c r="H16" s="12">
+        <v>5.0167097300222618E-2</v>
+      </c>
+      <c r="I16" s="12">
+        <v>0.56630381245867611</v>
+      </c>
+      <c r="J16" s="12">
+        <v>0.78749189061886304</v>
+      </c>
+    </row>
+    <row r="17" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D17" s="11">
+        <v>10</v>
+      </c>
+      <c r="E17" s="12">
+        <v>0.57431081092517577</v>
+      </c>
+      <c r="F17" s="12">
+        <v>0.81913835998710538</v>
+      </c>
+      <c r="G17" s="12">
+        <v>3.5980389971568059</v>
+      </c>
+      <c r="H17" s="12">
+        <v>-0.68641232193930757</v>
+      </c>
+      <c r="I17" s="12">
+        <v>0.47624128043767544</v>
+      </c>
+      <c r="J17" s="12">
+        <v>0.56032493782012849</v>
+      </c>
+    </row>
+    <row r="18" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D18" s="11">
+        <v>11</v>
+      </c>
+      <c r="E18" s="12">
+        <v>0.56204003523944124</v>
+      </c>
+      <c r="F18" s="12">
+        <v>0.79938962516006962</v>
+      </c>
+      <c r="G18" s="12">
+        <v>0.82086766440570558</v>
+      </c>
+      <c r="H18" s="12">
+        <v>-0.4173242094489531</v>
+      </c>
+      <c r="I18" s="12">
+        <v>0.55199101292328545</v>
+      </c>
+      <c r="J18" s="12">
+        <v>0.7697381403626935</v>
+      </c>
+    </row>
+    <row r="19" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D19" s="11">
+        <v>12</v>
+      </c>
+      <c r="E19" s="12">
+        <v>0.56203967444409786</v>
+      </c>
+      <c r="F19" s="12">
+        <v>0.79938904628353846</v>
+      </c>
+      <c r="G19" s="12">
+        <v>0.82083507413576573</v>
+      </c>
+      <c r="H19" s="12">
+        <v>-0.41734610412826956</v>
+      </c>
+      <c r="I19" s="12">
+        <v>0.55199034510470701</v>
+      </c>
+      <c r="J19" s="12">
+        <v>0.76973667727842643</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="I6:J6"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55E1D526-36BE-496F-BEF2-8ECDAC7E47B0}">
   <dimension ref="A1:AT70"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView topLeftCell="Q49" workbookViewId="0">
+      <selection activeCell="AE63" sqref="AE63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11538,15 +12232,15 @@
       </c>
       <c r="X6" s="5">
         <f>AE6</f>
-        <v>125.31829999999999</v>
+        <v>137.85013000000001</v>
       </c>
       <c r="Y6" s="8">
         <f>((Q6*U6)/(R6+S6*X6*T6))-1</f>
-        <v>0.58211849576458619</v>
+        <v>0.58208421409177213</v>
       </c>
       <c r="Z6" s="8">
         <f>((Q6*W6)/(R6+S6*X6*V6))-1</f>
-        <v>0.83176791135292794</v>
+        <v>0.83171234907061642</v>
       </c>
       <c r="AA6" s="7"/>
       <c r="AB6" s="7"/>
@@ -11557,22 +12251,28 @@
         <v>1</v>
       </c>
       <c r="AE6" s="10">
-        <v>125.31829999999999</v>
-      </c>
-      <c r="AF6" s="10">
-        <v>226.49719999999999</v>
-      </c>
-      <c r="AG6" s="10">
-        <v>226.46420000000001</v>
-      </c>
-      <c r="AH6" s="10">
-        <v>1.875613E-7</v>
-      </c>
-      <c r="AI6" s="10">
-        <v>34.742280000000001</v>
-      </c>
-      <c r="AJ6" s="10">
-        <v>34.742179999999998</v>
+        <f>AE20*1.1</f>
+        <v>137.85013000000001</v>
+      </c>
+      <c r="AF6" s="12">
+        <f t="shared" ref="AF6:AJ6" si="0">AF20*1.1</f>
+        <v>249.14692000000002</v>
+      </c>
+      <c r="AG6" s="12">
+        <f t="shared" si="0"/>
+        <v>249.11062000000004</v>
+      </c>
+      <c r="AH6" s="12">
+        <f t="shared" si="0"/>
+        <v>2.0631743000000001E-7</v>
+      </c>
+      <c r="AI6" s="12">
+        <f t="shared" si="0"/>
+        <v>38.216508000000005</v>
+      </c>
+      <c r="AJ6" s="12">
+        <f t="shared" si="0"/>
+        <v>38.216397999999998</v>
       </c>
       <c r="AK6" s="7"/>
       <c r="AL6" s="7"/>
@@ -11626,16 +12326,16 @@
         <v>1100000000</v>
       </c>
       <c r="X7" s="5">
-        <f t="shared" ref="X7:X17" si="0">AE7</f>
-        <v>2850.2809999999999</v>
+        <f t="shared" ref="X7:X17" si="1">AE7</f>
+        <v>3135.3091000000004</v>
       </c>
       <c r="Y7" s="8">
-        <f t="shared" ref="Y7:Y17" si="1">((Q7*U7)/(R7+S7*X7*T7))-1</f>
-        <v>0.57469897218186161</v>
+        <f t="shared" ref="Y7:Y17" si="2">((Q7*U7)/(R7+S7*X7*T7))-1</f>
+        <v>0.57392691638126214</v>
       </c>
       <c r="Z7" s="8">
-        <f t="shared" ref="Z7:Z17" si="2">((Q7*W7)/(R7+S7*X7*V7))-1</f>
-        <v>0.81976506645211877</v>
+        <f t="shared" ref="Z7:Z17" si="3">((Q7*W7)/(R7+S7*X7*V7))-1</f>
+        <v>0.81851866304996279</v>
       </c>
       <c r="AA7" s="7"/>
       <c r="AB7" s="7"/>
@@ -11645,23 +12345,29 @@
       <c r="AD7" s="9">
         <v>2</v>
       </c>
-      <c r="AE7" s="10">
-        <v>2850.2809999999999</v>
-      </c>
-      <c r="AF7" s="10">
-        <v>39.198300000000003</v>
-      </c>
-      <c r="AG7" s="10">
-        <v>665.21929999999998</v>
-      </c>
-      <c r="AH7" s="10">
-        <v>7.7746019999999996E-4</v>
-      </c>
-      <c r="AI7" s="10">
-        <v>95.404669999999996</v>
-      </c>
-      <c r="AJ7" s="10">
-        <v>2.117445</v>
+      <c r="AE7" s="12">
+        <f t="shared" ref="AE7:AJ7" si="4">AE21*1.1</f>
+        <v>3135.3091000000004</v>
+      </c>
+      <c r="AF7" s="12">
+        <f t="shared" si="4"/>
+        <v>43.118130000000008</v>
+      </c>
+      <c r="AG7" s="12">
+        <f t="shared" si="4"/>
+        <v>731.74123000000009</v>
+      </c>
+      <c r="AH7" s="12">
+        <f t="shared" si="4"/>
+        <v>8.5520622000000005E-4</v>
+      </c>
+      <c r="AI7" s="12">
+        <f t="shared" si="4"/>
+        <v>104.945137</v>
+      </c>
+      <c r="AJ7" s="12">
+        <f t="shared" si="4"/>
+        <v>2.3291895</v>
       </c>
       <c r="AK7" s="7"/>
       <c r="AL7" s="7"/>
@@ -11715,16 +12421,16 @@
         <v>1100000000</v>
       </c>
       <c r="X8" s="5">
-        <f t="shared" si="0"/>
-        <v>2850.0279999999998</v>
+        <f t="shared" si="1"/>
+        <v>3135.0308</v>
       </c>
       <c r="Y8" s="8">
-        <f t="shared" si="1"/>
-        <v>0.5746996578195851</v>
+        <f t="shared" si="2"/>
+        <v>0.57392766984342014</v>
       </c>
       <c r="Z8" s="8">
-        <f t="shared" si="2"/>
-        <v>0.8197661735583488</v>
+        <f t="shared" si="3"/>
+        <v>0.81851987919923297</v>
       </c>
       <c r="AA8" s="7"/>
       <c r="AB8" s="7"/>
@@ -11734,23 +12440,29 @@
       <c r="AD8" s="9">
         <v>3</v>
       </c>
-      <c r="AE8" s="10">
-        <v>2850.0279999999998</v>
-      </c>
-      <c r="AF8" s="10">
-        <v>38.9041</v>
-      </c>
-      <c r="AG8" s="10">
-        <v>665.14639999999997</v>
-      </c>
-      <c r="AH8" s="10">
-        <v>7.6891039999999996E-4</v>
-      </c>
-      <c r="AI8" s="10">
-        <v>95.396839999999997</v>
-      </c>
-      <c r="AJ8" s="10">
-        <v>2.114096</v>
+      <c r="AE8" s="12">
+        <f t="shared" ref="AE8:AJ8" si="5">AE22*1.1</f>
+        <v>3135.0308</v>
+      </c>
+      <c r="AF8" s="12">
+        <f t="shared" si="5"/>
+        <v>42.794510000000002</v>
+      </c>
+      <c r="AG8" s="12">
+        <f t="shared" si="5"/>
+        <v>731.66104000000007</v>
+      </c>
+      <c r="AH8" s="12">
+        <f t="shared" si="5"/>
+        <v>8.4580144000000006E-4</v>
+      </c>
+      <c r="AI8" s="12">
+        <f t="shared" si="5"/>
+        <v>104.93652400000001</v>
+      </c>
+      <c r="AJ8" s="12">
+        <f t="shared" si="5"/>
+        <v>2.3255056000000001</v>
       </c>
       <c r="AK8" s="7"/>
       <c r="AL8" s="7"/>
@@ -11804,16 +12516,16 @@
         <v>1100000000</v>
       </c>
       <c r="X9" s="5">
-        <f t="shared" si="0"/>
-        <v>125.2933</v>
+        <f t="shared" si="1"/>
+        <v>137.82263</v>
       </c>
       <c r="Y9" s="8">
-        <f t="shared" si="1"/>
-        <v>0.58211856415527063</v>
+        <f t="shared" si="2"/>
+        <v>0.58208428931826495</v>
       </c>
       <c r="Z9" s="8">
-        <f t="shared" si="2"/>
-        <v>0.83176802219861301</v>
+        <f t="shared" si="3"/>
+        <v>0.83171247099347356</v>
       </c>
       <c r="AA9" s="7"/>
       <c r="AB9" s="7"/>
@@ -11823,23 +12535,29 @@
       <c r="AD9" s="9">
         <v>4</v>
       </c>
-      <c r="AE9" s="10">
-        <v>125.2933</v>
-      </c>
-      <c r="AF9" s="10">
-        <v>226.58330000000001</v>
-      </c>
-      <c r="AG9" s="10">
-        <v>226.40430000000001</v>
-      </c>
-      <c r="AH9" s="10">
-        <v>7.269829E-7</v>
-      </c>
-      <c r="AI9" s="10">
-        <v>34.737789999999997</v>
-      </c>
-      <c r="AJ9" s="10">
-        <v>34.737699999999997</v>
+      <c r="AE9" s="12">
+        <f t="shared" ref="AE9:AJ9" si="6">AE23*1.1</f>
+        <v>137.82263</v>
+      </c>
+      <c r="AF9" s="12">
+        <f t="shared" si="6"/>
+        <v>249.24163000000004</v>
+      </c>
+      <c r="AG9" s="12">
+        <f t="shared" si="6"/>
+        <v>249.04473000000002</v>
+      </c>
+      <c r="AH9" s="12">
+        <f t="shared" si="6"/>
+        <v>7.9968119000000011E-7</v>
+      </c>
+      <c r="AI9" s="12">
+        <f t="shared" si="6"/>
+        <v>38.211568999999997</v>
+      </c>
+      <c r="AJ9" s="12">
+        <f t="shared" si="6"/>
+        <v>38.211469999999998</v>
       </c>
       <c r="AK9" s="7"/>
       <c r="AL9" s="7"/>
@@ -11893,16 +12611,16 @@
         <v>1100000000</v>
       </c>
       <c r="X10" s="5">
-        <f t="shared" si="0"/>
-        <v>2850.1770000000001</v>
+        <f t="shared" si="1"/>
+        <v>3135.1947000000005</v>
       </c>
       <c r="Y10" s="8">
-        <f t="shared" si="1"/>
-        <v>0.57469925402496425</v>
+        <f t="shared" si="2"/>
+        <v>0.57392722610474967</v>
       </c>
       <c r="Z10" s="8">
-        <f t="shared" si="2"/>
-        <v>0.81976552154700677</v>
+        <f t="shared" si="3"/>
+        <v>0.81851916296883354</v>
       </c>
       <c r="AA10" s="7"/>
       <c r="AB10" s="7"/>
@@ -11912,23 +12630,29 @@
       <c r="AD10" s="9">
         <v>5</v>
       </c>
-      <c r="AE10" s="10">
-        <v>2850.1770000000001</v>
-      </c>
-      <c r="AF10" s="10">
-        <v>665.19759999999997</v>
-      </c>
-      <c r="AG10" s="10">
-        <v>39.279760000000003</v>
-      </c>
-      <c r="AH10" s="10">
-        <v>7.70808E-4</v>
-      </c>
-      <c r="AI10" s="10">
-        <v>2.116959</v>
-      </c>
-      <c r="AJ10" s="10">
-        <v>95.4024</v>
+      <c r="AE10" s="12">
+        <f t="shared" ref="AE10:AJ10" si="7">AE24*1.1</f>
+        <v>3135.1947000000005</v>
+      </c>
+      <c r="AF10" s="12">
+        <f t="shared" si="7"/>
+        <v>731.71735999999999</v>
+      </c>
+      <c r="AG10" s="12">
+        <f t="shared" si="7"/>
+        <v>43.207736000000004</v>
+      </c>
+      <c r="AH10" s="12">
+        <f t="shared" si="7"/>
+        <v>8.4788880000000004E-4</v>
+      </c>
+      <c r="AI10" s="12">
+        <f t="shared" si="7"/>
+        <v>2.3286549000000001</v>
+      </c>
+      <c r="AJ10" s="12">
+        <f t="shared" si="7"/>
+        <v>104.94264000000001</v>
       </c>
       <c r="AK10" s="7"/>
       <c r="AL10" s="7"/>
@@ -11984,16 +12708,16 @@
         <v>1100000000</v>
       </c>
       <c r="X11" s="5">
-        <f t="shared" si="0"/>
-        <v>2849.8009999999999</v>
+        <f t="shared" si="1"/>
+        <v>3134.7811000000002</v>
       </c>
       <c r="Y11" s="8">
-        <f t="shared" si="1"/>
-        <v>0.57470027299702298</v>
+        <f t="shared" si="2"/>
+        <v>0.5739283458752984</v>
       </c>
       <c r="Z11" s="8">
-        <f t="shared" si="2"/>
-        <v>0.81976716689196238</v>
+        <f t="shared" si="3"/>
+        <v>0.81852097037012062</v>
       </c>
       <c r="AA11" s="7"/>
       <c r="AB11" s="7"/>
@@ -12003,23 +12727,29 @@
       <c r="AD11" s="9">
         <v>6</v>
       </c>
-      <c r="AE11" s="10">
-        <v>2849.8009999999999</v>
-      </c>
-      <c r="AF11" s="10">
-        <v>665.16020000000003</v>
-      </c>
-      <c r="AG11" s="10">
-        <v>39.376100000000001</v>
-      </c>
-      <c r="AH11" s="10">
-        <v>7.7759050000000005E-4</v>
-      </c>
-      <c r="AI11" s="10">
-        <v>2.1167739999999999</v>
-      </c>
-      <c r="AJ11" s="10">
-        <v>95.389359999999996</v>
+      <c r="AE11" s="12">
+        <f t="shared" ref="AE11:AJ11" si="8">AE25*1.1</f>
+        <v>3134.7811000000002</v>
+      </c>
+      <c r="AF11" s="12">
+        <f t="shared" si="8"/>
+        <v>731.67622000000006</v>
+      </c>
+      <c r="AG11" s="12">
+        <f t="shared" si="8"/>
+        <v>43.313710000000007</v>
+      </c>
+      <c r="AH11" s="12">
+        <f t="shared" si="8"/>
+        <v>8.5534955000000012E-4</v>
+      </c>
+      <c r="AI11" s="12">
+        <f t="shared" si="8"/>
+        <v>2.3284514000000001</v>
+      </c>
+      <c r="AJ11" s="12">
+        <f t="shared" si="8"/>
+        <v>104.928296</v>
       </c>
       <c r="AK11" s="7"/>
       <c r="AL11" s="7"/>
@@ -12095,16 +12825,16 @@
         <v>1100000000</v>
       </c>
       <c r="X12" s="5">
-        <f t="shared" si="0"/>
-        <v>2849.9679999999998</v>
+        <f t="shared" si="1"/>
+        <v>3134.9648000000002</v>
       </c>
       <c r="Y12" s="8">
-        <f t="shared" si="1"/>
-        <v>0.57469982042150436</v>
+        <f t="shared" si="2"/>
+        <v>0.57392784853020373</v>
       </c>
       <c r="Z12" s="8">
-        <f t="shared" si="2"/>
-        <v>0.81976643611338362</v>
+        <f t="shared" si="3"/>
+        <v>0.8185201676143179</v>
       </c>
       <c r="AA12" s="7"/>
       <c r="AB12" s="7"/>
@@ -12114,23 +12844,29 @@
       <c r="AD12" s="9">
         <v>7</v>
       </c>
-      <c r="AE12" s="10">
-        <v>2849.9679999999998</v>
-      </c>
-      <c r="AF12" s="10">
-        <v>665.14710000000002</v>
-      </c>
-      <c r="AG12" s="10">
-        <v>38.850619999999999</v>
-      </c>
-      <c r="AH12" s="10">
-        <v>7.7573249999999996E-4</v>
-      </c>
-      <c r="AI12" s="10">
-        <v>2.114401</v>
-      </c>
-      <c r="AJ12" s="10">
-        <v>95.393969999999996</v>
+      <c r="AE12" s="12">
+        <f t="shared" ref="AE12:AJ12" si="9">AE26*1.1</f>
+        <v>3134.9648000000002</v>
+      </c>
+      <c r="AF12" s="12">
+        <f t="shared" si="9"/>
+        <v>731.66181000000006</v>
+      </c>
+      <c r="AG12" s="12">
+        <f t="shared" si="9"/>
+        <v>42.735682000000004</v>
+      </c>
+      <c r="AH12" s="12">
+        <f t="shared" si="9"/>
+        <v>8.5330574999999999E-4</v>
+      </c>
+      <c r="AI12" s="12">
+        <f t="shared" si="9"/>
+        <v>2.3258411000000003</v>
+      </c>
+      <c r="AJ12" s="12">
+        <f t="shared" si="9"/>
+        <v>104.933367</v>
       </c>
       <c r="AK12" s="7"/>
       <c r="AL12" s="7"/>
@@ -12208,16 +12944,16 @@
         <v>1100000000</v>
       </c>
       <c r="X13" s="5">
-        <f t="shared" si="0"/>
-        <v>125.28489999999999</v>
+        <f t="shared" si="1"/>
+        <v>137.81339</v>
       </c>
       <c r="Y13" s="8">
-        <f t="shared" si="1"/>
-        <v>0.58211858713454179</v>
+        <f t="shared" si="2"/>
+        <v>0.58208431459436838</v>
       </c>
       <c r="Z13" s="8">
-        <f t="shared" si="2"/>
-        <v>0.83176805944276588</v>
+        <f t="shared" si="3"/>
+        <v>0.8317125119595572</v>
       </c>
       <c r="AA13" s="7"/>
       <c r="AB13" s="7"/>
@@ -12227,23 +12963,29 @@
       <c r="AD13" s="9">
         <v>8</v>
       </c>
-      <c r="AE13" s="10">
-        <v>125.28489999999999</v>
-      </c>
-      <c r="AF13" s="10">
-        <v>226.4042</v>
-      </c>
-      <c r="AG13" s="10">
-        <v>226.59700000000001</v>
-      </c>
-      <c r="AH13" s="10">
-        <v>7.1923039999999998E-7</v>
-      </c>
-      <c r="AI13" s="10">
-        <v>34.736080000000001</v>
-      </c>
-      <c r="AJ13" s="10">
-        <v>34.7363</v>
+      <c r="AE13" s="12">
+        <f t="shared" ref="AE13:AJ13" si="10">AE27*1.1</f>
+        <v>137.81339</v>
+      </c>
+      <c r="AF13" s="12">
+        <f t="shared" si="10"/>
+        <v>249.04462000000004</v>
+      </c>
+      <c r="AG13" s="12">
+        <f t="shared" si="10"/>
+        <v>249.25670000000002</v>
+      </c>
+      <c r="AH13" s="12">
+        <f t="shared" si="10"/>
+        <v>7.9115344000000002E-7</v>
+      </c>
+      <c r="AI13" s="12">
+        <f t="shared" si="10"/>
+        <v>38.209688000000007</v>
+      </c>
+      <c r="AJ13" s="12">
+        <f t="shared" si="10"/>
+        <v>38.20993</v>
       </c>
       <c r="AK13" s="7"/>
       <c r="AL13" s="7"/>
@@ -12297,16 +13039,16 @@
         <v>1100000000</v>
       </c>
       <c r="X14" s="5">
-        <f t="shared" si="0"/>
-        <v>125.26</v>
+        <f t="shared" si="1"/>
+        <v>137.78600000000003</v>
       </c>
       <c r="Y14" s="8">
-        <f t="shared" si="1"/>
-        <v>0.58211865525167106</v>
+        <f t="shared" si="2"/>
+        <v>0.58208438951996477</v>
       </c>
       <c r="Z14" s="8">
-        <f t="shared" si="2"/>
-        <v>0.83176816984508584</v>
+        <f t="shared" si="3"/>
+        <v>0.83171263339474422</v>
       </c>
       <c r="AA14" s="7"/>
       <c r="AB14" s="7"/>
@@ -12316,23 +13058,29 @@
       <c r="AD14" s="9">
         <v>9</v>
       </c>
-      <c r="AE14" s="10">
-        <v>125.26</v>
-      </c>
-      <c r="AF14" s="10">
-        <v>226.5043</v>
-      </c>
-      <c r="AG14" s="10">
-        <v>226.52269999999999</v>
-      </c>
-      <c r="AH14" s="10">
-        <v>4.2243999999999998E-8</v>
-      </c>
-      <c r="AI14" s="10">
-        <v>34.731720000000003</v>
-      </c>
-      <c r="AJ14" s="10">
-        <v>34.73171</v>
+      <c r="AE14" s="12">
+        <f t="shared" ref="AE14:AJ14" si="11">AE28*1.1</f>
+        <v>137.78600000000003</v>
+      </c>
+      <c r="AF14" s="12">
+        <f t="shared" si="11"/>
+        <v>249.15473000000003</v>
+      </c>
+      <c r="AG14" s="12">
+        <f t="shared" si="11"/>
+        <v>249.17497</v>
+      </c>
+      <c r="AH14" s="12">
+        <f t="shared" si="11"/>
+        <v>4.6468399999999998E-8</v>
+      </c>
+      <c r="AI14" s="12">
+        <f t="shared" si="11"/>
+        <v>38.204892000000008</v>
+      </c>
+      <c r="AJ14" s="12">
+        <f t="shared" si="11"/>
+        <v>38.204881</v>
       </c>
       <c r="AK14" s="7"/>
       <c r="AL14" s="7"/>
@@ -12388,16 +13136,16 @@
         <v>1100000000</v>
       </c>
       <c r="X15" s="5">
-        <f t="shared" si="0"/>
-        <v>2849.4830000000002</v>
+        <f t="shared" si="1"/>
+        <v>3134.4313000000006</v>
       </c>
       <c r="Y15" s="8">
-        <f t="shared" si="1"/>
-        <v>0.57470113478825113</v>
+        <f t="shared" si="2"/>
+        <v>0.57392929291652739</v>
       </c>
       <c r="Z15" s="8">
-        <f t="shared" si="2"/>
-        <v>0.8197685584360288</v>
+        <f t="shared" si="3"/>
+        <v>0.81852249897294937</v>
       </c>
       <c r="AA15" s="7"/>
       <c r="AB15" s="7"/>
@@ -12407,23 +13155,29 @@
       <c r="AD15" s="9">
         <v>10</v>
       </c>
-      <c r="AE15" s="10">
-        <v>2849.4830000000002</v>
-      </c>
-      <c r="AF15" s="10">
-        <v>665.06979999999999</v>
-      </c>
-      <c r="AG15" s="10">
-        <v>38.97833</v>
-      </c>
-      <c r="AH15" s="10">
-        <v>7.6920220000000004E-4</v>
-      </c>
-      <c r="AI15" s="10">
-        <v>2.1125579999999999</v>
-      </c>
-      <c r="AJ15" s="10">
-        <v>95.379199999999997</v>
+      <c r="AE15" s="12">
+        <f t="shared" ref="AE15:AJ15" si="12">AE29*1.1</f>
+        <v>3134.4313000000006</v>
+      </c>
+      <c r="AF15" s="12">
+        <f t="shared" si="12"/>
+        <v>731.5767800000001</v>
+      </c>
+      <c r="AG15" s="12">
+        <f t="shared" si="12"/>
+        <v>42.876163000000005</v>
+      </c>
+      <c r="AH15" s="12">
+        <f t="shared" si="12"/>
+        <v>8.461224200000001E-4</v>
+      </c>
+      <c r="AI15" s="12">
+        <f t="shared" si="12"/>
+        <v>2.3238137999999999</v>
+      </c>
+      <c r="AJ15" s="12">
+        <f t="shared" si="12"/>
+        <v>104.91712000000001</v>
       </c>
       <c r="AK15" s="7"/>
       <c r="AL15" s="7"/>
@@ -12499,16 +13253,16 @@
         <v>1100000000</v>
       </c>
       <c r="X16" s="5">
-        <f t="shared" si="0"/>
-        <v>2849.6289999999999</v>
+        <f t="shared" si="1"/>
+        <v>3134.5919000000004</v>
       </c>
       <c r="Y16" s="8">
-        <f t="shared" si="1"/>
-        <v>0.57470073912297881</v>
+        <f t="shared" si="2"/>
+        <v>0.57392885811129357</v>
       </c>
       <c r="Z16" s="8">
-        <f t="shared" si="2"/>
-        <v>0.81976791955075301</v>
+        <f t="shared" si="3"/>
+        <v>0.81852179716126838</v>
       </c>
       <c r="AA16" s="7"/>
       <c r="AB16" s="7"/>
@@ -12518,23 +13272,29 @@
       <c r="AD16" s="9">
         <v>11</v>
       </c>
-      <c r="AE16" s="10">
-        <v>2849.6289999999999</v>
-      </c>
-      <c r="AF16" s="10">
-        <v>39.350720000000003</v>
-      </c>
-      <c r="AG16" s="10">
-        <v>665.12139999999999</v>
-      </c>
-      <c r="AH16" s="10">
-        <v>7.7105459999999995E-4</v>
-      </c>
-      <c r="AI16" s="10">
-        <v>95.384709999999998</v>
-      </c>
-      <c r="AJ16" s="10">
-        <v>2.115437</v>
+      <c r="AE16" s="12">
+        <f t="shared" ref="AE16:AJ16" si="13">AE30*1.1</f>
+        <v>3134.5919000000004</v>
+      </c>
+      <c r="AF16" s="12">
+        <f t="shared" si="13"/>
+        <v>43.285792000000008</v>
+      </c>
+      <c r="AG16" s="12">
+        <f t="shared" si="13"/>
+        <v>731.63354000000004</v>
+      </c>
+      <c r="AH16" s="12">
+        <f t="shared" si="13"/>
+        <v>8.4816006000000002E-4</v>
+      </c>
+      <c r="AI16" s="12">
+        <f t="shared" si="13"/>
+        <v>104.923181</v>
+      </c>
+      <c r="AJ16" s="12">
+        <f t="shared" si="13"/>
+        <v>2.3269807</v>
       </c>
       <c r="AK16" s="7"/>
       <c r="AL16" s="7"/>
@@ -12553,8 +13313,8 @@
       <c r="C17" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="8">
-        <v>11700000</v>
+      <c r="D17" s="5">
+        <v>13900000</v>
       </c>
       <c r="E17" s="7">
         <v>1.1000000000000001</v>
@@ -12579,11 +13339,11 @@
       </c>
       <c r="L17" s="3">
         <f>(J17/PRODUCT(D17:H17))-1</f>
-        <v>22.224403389692636</v>
+        <v>18.548598536647766</v>
       </c>
       <c r="M17" s="3">
         <f>(K17/(PRODUCT(D17:G17)*I17))-1</f>
-        <v>23.016387652751284</v>
+        <v>19.215232772459718</v>
       </c>
       <c r="N17" s="7"/>
       <c r="O17" s="7"/>
@@ -12612,16 +13372,16 @@
         <v>1100000000</v>
       </c>
       <c r="X17" s="5">
-        <f t="shared" si="0"/>
-        <v>2849.4870000000001</v>
+        <f t="shared" si="1"/>
+        <v>3134.4357000000005</v>
       </c>
       <c r="Y17" s="8">
-        <f t="shared" si="1"/>
-        <v>0.57470112394810391</v>
+        <f t="shared" si="2"/>
+        <v>0.57392928100405216</v>
       </c>
       <c r="Z17" s="8">
-        <f t="shared" si="2"/>
-        <v>0.81976854093231677</v>
+        <f t="shared" si="3"/>
+        <v>0.81852247974522463</v>
       </c>
       <c r="AA17" s="7"/>
       <c r="AB17" s="7"/>
@@ -12631,23 +13391,29 @@
       <c r="AD17" s="9">
         <v>12</v>
       </c>
-      <c r="AE17" s="10">
-        <v>2849.4870000000001</v>
-      </c>
-      <c r="AF17" s="10">
-        <v>39.026029999999999</v>
-      </c>
-      <c r="AG17" s="10">
-        <v>665.08860000000004</v>
-      </c>
-      <c r="AH17" s="10">
-        <v>7.7649100000000003E-4</v>
-      </c>
-      <c r="AI17" s="10">
-        <v>95.378619999999998</v>
-      </c>
-      <c r="AJ17" s="10">
-        <v>2.113747</v>
+      <c r="AE17" s="12">
+        <f t="shared" ref="AE17:AJ17" si="14">AE31*1.1</f>
+        <v>3134.4357000000005</v>
+      </c>
+      <c r="AF17" s="12">
+        <f t="shared" si="14"/>
+        <v>42.928633000000005</v>
+      </c>
+      <c r="AG17" s="12">
+        <f t="shared" si="14"/>
+        <v>731.59746000000007</v>
+      </c>
+      <c r="AH17" s="12">
+        <f t="shared" si="14"/>
+        <v>8.5414010000000012E-4</v>
+      </c>
+      <c r="AI17" s="12">
+        <f t="shared" si="14"/>
+        <v>104.916482</v>
+      </c>
+      <c r="AJ17" s="12">
+        <f t="shared" si="14"/>
+        <v>2.3251217000000004</v>
       </c>
       <c r="AK17" s="7"/>
       <c r="AL17" s="7"/>
@@ -12792,13 +13558,27 @@
       <c r="AA20" s="7"/>
       <c r="AB20" s="7"/>
       <c r="AC20" s="7"/>
-      <c r="AD20" s="7"/>
-      <c r="AE20" s="7"/>
-      <c r="AF20" s="7"/>
-      <c r="AG20" s="7"/>
-      <c r="AH20" s="7"/>
-      <c r="AI20" s="7"/>
-      <c r="AJ20" s="7"/>
+      <c r="AD20" s="11">
+        <v>1</v>
+      </c>
+      <c r="AE20" s="12">
+        <v>125.31829999999999</v>
+      </c>
+      <c r="AF20" s="12">
+        <v>226.49719999999999</v>
+      </c>
+      <c r="AG20" s="12">
+        <v>226.46420000000001</v>
+      </c>
+      <c r="AH20" s="12">
+        <v>1.875613E-7</v>
+      </c>
+      <c r="AI20" s="12">
+        <v>34.742280000000001</v>
+      </c>
+      <c r="AJ20" s="12">
+        <v>34.742179999999998</v>
+      </c>
       <c r="AK20" s="7"/>
       <c r="AL20" s="7"/>
       <c r="AM20" s="7"/>
@@ -12852,13 +13632,27 @@
       <c r="AA21" s="7"/>
       <c r="AB21" s="7"/>
       <c r="AC21" s="7"/>
-      <c r="AD21" s="7"/>
-      <c r="AE21" s="7"/>
-      <c r="AF21" s="7"/>
-      <c r="AG21" s="7"/>
-      <c r="AH21" s="7"/>
-      <c r="AI21" s="7"/>
-      <c r="AJ21" s="7"/>
+      <c r="AD21" s="11">
+        <v>2</v>
+      </c>
+      <c r="AE21" s="12">
+        <v>2850.2809999999999</v>
+      </c>
+      <c r="AF21" s="12">
+        <v>39.198300000000003</v>
+      </c>
+      <c r="AG21" s="12">
+        <v>665.21929999999998</v>
+      </c>
+      <c r="AH21" s="12">
+        <v>7.7746019999999996E-4</v>
+      </c>
+      <c r="AI21" s="12">
+        <v>95.404669999999996</v>
+      </c>
+      <c r="AJ21" s="12">
+        <v>2.117445</v>
+      </c>
       <c r="AK21" s="7"/>
       <c r="AL21" s="7"/>
       <c r="AM21" s="7"/>
@@ -12900,11 +13694,11 @@
       </c>
       <c r="T22" s="5">
         <f>ABS(AE6)</f>
-        <v>125.31829999999999</v>
+        <v>137.85013000000001</v>
       </c>
       <c r="U22" s="4">
         <f>(Q22/((1-R22)*T22*S22))-1</f>
-        <v>108.83590636362818</v>
+        <v>98.850823966934698</v>
       </c>
       <c r="V22" s="7"/>
       <c r="W22" s="7"/>
@@ -12914,13 +13708,27 @@
       <c r="AA22" s="7"/>
       <c r="AB22" s="7"/>
       <c r="AC22" s="7"/>
-      <c r="AD22" s="7"/>
-      <c r="AE22" s="7"/>
-      <c r="AF22" s="7"/>
-      <c r="AG22" s="7"/>
-      <c r="AH22" s="7"/>
-      <c r="AI22" s="7"/>
-      <c r="AJ22" s="7"/>
+      <c r="AD22" s="11">
+        <v>3</v>
+      </c>
+      <c r="AE22" s="12">
+        <v>2850.0279999999998</v>
+      </c>
+      <c r="AF22" s="12">
+        <v>38.9041</v>
+      </c>
+      <c r="AG22" s="12">
+        <v>665.14639999999997</v>
+      </c>
+      <c r="AH22" s="12">
+        <v>7.6891039999999996E-4</v>
+      </c>
+      <c r="AI22" s="12">
+        <v>95.396839999999997</v>
+      </c>
+      <c r="AJ22" s="12">
+        <v>2.114096</v>
+      </c>
       <c r="AK22" s="7"/>
       <c r="AL22" s="7"/>
       <c r="AM22" s="7"/>
@@ -12961,12 +13769,12 @@
         <v>1</v>
       </c>
       <c r="T23" s="5">
-        <f t="shared" ref="T23:T33" si="3">ABS(AE7)</f>
-        <v>2850.2809999999999</v>
+        <f t="shared" ref="T23:T33" si="15">ABS(AE7)</f>
+        <v>3135.3091000000004</v>
       </c>
       <c r="U23" s="4">
-        <f t="shared" ref="U23:U33" si="4">(Q23/((1-R23)*T23*S23))-1</f>
-        <v>3.829155112934151</v>
+        <f t="shared" ref="U23:U33" si="16">(Q23/((1-R23)*T23*S23))-1</f>
+        <v>3.3901410117583186</v>
       </c>
       <c r="V23" s="7"/>
       <c r="W23" s="7"/>
@@ -12976,13 +13784,27 @@
       <c r="AA23" s="7"/>
       <c r="AB23" s="7"/>
       <c r="AC23" s="7"/>
-      <c r="AD23" s="7"/>
-      <c r="AE23" s="7"/>
-      <c r="AF23" s="7"/>
-      <c r="AG23" s="7"/>
-      <c r="AH23" s="7"/>
-      <c r="AI23" s="7"/>
-      <c r="AJ23" s="7"/>
+      <c r="AD23" s="11">
+        <v>4</v>
+      </c>
+      <c r="AE23" s="12">
+        <v>125.2933</v>
+      </c>
+      <c r="AF23" s="12">
+        <v>226.58330000000001</v>
+      </c>
+      <c r="AG23" s="12">
+        <v>226.40430000000001</v>
+      </c>
+      <c r="AH23" s="12">
+        <v>7.269829E-7</v>
+      </c>
+      <c r="AI23" s="12">
+        <v>34.737789999999997</v>
+      </c>
+      <c r="AJ23" s="12">
+        <v>34.737699999999997</v>
+      </c>
       <c r="AK23" s="7"/>
       <c r="AL23" s="7"/>
       <c r="AM23" s="7"/>
@@ -13023,12 +13845,12 @@
         <v>1</v>
       </c>
       <c r="T24" s="5">
-        <f t="shared" si="3"/>
-        <v>2850.0279999999998</v>
+        <f t="shared" si="15"/>
+        <v>3135.0308</v>
       </c>
       <c r="U24" s="4">
-        <f t="shared" si="4"/>
-        <v>3.8295838021412649</v>
+        <f t="shared" si="16"/>
+        <v>3.3905307292193312</v>
       </c>
       <c r="V24" s="7"/>
       <c r="W24" s="7"/>
@@ -13038,13 +13860,27 @@
       <c r="AA24" s="7"/>
       <c r="AB24" s="7"/>
       <c r="AC24" s="6"/>
-      <c r="AD24" s="7"/>
-      <c r="AE24" s="7"/>
-      <c r="AF24" s="7"/>
-      <c r="AG24" s="7"/>
-      <c r="AH24" s="7"/>
-      <c r="AI24" s="7"/>
-      <c r="AJ24" s="7"/>
+      <c r="AD24" s="11">
+        <v>5</v>
+      </c>
+      <c r="AE24" s="12">
+        <v>2850.1770000000001</v>
+      </c>
+      <c r="AF24" s="12">
+        <v>665.19759999999997</v>
+      </c>
+      <c r="AG24" s="12">
+        <v>39.279760000000003</v>
+      </c>
+      <c r="AH24" s="12">
+        <v>7.70808E-4</v>
+      </c>
+      <c r="AI24" s="12">
+        <v>2.116959</v>
+      </c>
+      <c r="AJ24" s="12">
+        <v>95.4024</v>
+      </c>
       <c r="AK24" s="7"/>
       <c r="AL24" s="7"/>
       <c r="AM24" s="7"/>
@@ -13085,12 +13921,12 @@
         <v>1</v>
       </c>
       <c r="T25" s="5">
-        <f t="shared" si="3"/>
-        <v>125.2933</v>
+        <f t="shared" si="15"/>
+        <v>137.82263</v>
       </c>
       <c r="U25" s="4">
-        <f t="shared" si="4"/>
-        <v>108.85782212176601</v>
+        <f t="shared" si="16"/>
+        <v>98.870747383423634</v>
       </c>
       <c r="V25" s="7"/>
       <c r="W25" s="7"/>
@@ -13100,13 +13936,27 @@
       <c r="AA25" s="7"/>
       <c r="AB25" s="7"/>
       <c r="AC25" s="7"/>
-      <c r="AD25" s="7"/>
-      <c r="AE25" s="7"/>
-      <c r="AF25" s="7"/>
-      <c r="AG25" s="7"/>
-      <c r="AH25" s="7"/>
-      <c r="AI25" s="7"/>
-      <c r="AJ25" s="7"/>
+      <c r="AD25" s="11">
+        <v>6</v>
+      </c>
+      <c r="AE25" s="12">
+        <v>2849.8009999999999</v>
+      </c>
+      <c r="AF25" s="12">
+        <v>665.16020000000003</v>
+      </c>
+      <c r="AG25" s="12">
+        <v>39.376100000000001</v>
+      </c>
+      <c r="AH25" s="12">
+        <v>7.7759050000000005E-4</v>
+      </c>
+      <c r="AI25" s="12">
+        <v>2.1167739999999999</v>
+      </c>
+      <c r="AJ25" s="12">
+        <v>95.389359999999996</v>
+      </c>
       <c r="AK25" s="7"/>
       <c r="AL25" s="7"/>
       <c r="AM25" s="7"/>
@@ -13147,12 +13997,12 @@
         <v>1</v>
       </c>
       <c r="T26" s="5">
-        <f t="shared" si="3"/>
-        <v>2850.1770000000001</v>
+        <f t="shared" si="15"/>
+        <v>3135.1947000000005</v>
       </c>
       <c r="U26" s="4">
-        <f t="shared" si="4"/>
-        <v>3.8293313237911413</v>
+        <f t="shared" si="16"/>
+        <v>3.3903012034464917</v>
       </c>
       <c r="V26" s="7"/>
       <c r="W26" s="7"/>
@@ -13162,13 +14012,27 @@
       <c r="AA26" s="7"/>
       <c r="AB26" s="7"/>
       <c r="AC26" s="7"/>
-      <c r="AD26" s="7"/>
-      <c r="AE26" s="7"/>
-      <c r="AF26" s="7"/>
-      <c r="AG26" s="7"/>
-      <c r="AH26" s="7"/>
-      <c r="AI26" s="7"/>
-      <c r="AJ26" s="7"/>
+      <c r="AD26" s="11">
+        <v>7</v>
+      </c>
+      <c r="AE26" s="12">
+        <v>2849.9679999999998</v>
+      </c>
+      <c r="AF26" s="12">
+        <v>665.14710000000002</v>
+      </c>
+      <c r="AG26" s="12">
+        <v>38.850619999999999</v>
+      </c>
+      <c r="AH26" s="12">
+        <v>7.7573249999999996E-4</v>
+      </c>
+      <c r="AI26" s="12">
+        <v>2.114401</v>
+      </c>
+      <c r="AJ26" s="12">
+        <v>95.393969999999996</v>
+      </c>
       <c r="AK26" s="7"/>
       <c r="AL26" s="7"/>
       <c r="AM26" s="7"/>
@@ -13209,12 +14073,12 @@
         <v>1</v>
       </c>
       <c r="T27" s="5">
-        <f t="shared" si="3"/>
-        <v>2849.8009999999999</v>
+        <f t="shared" si="15"/>
+        <v>3134.7811000000002</v>
       </c>
       <c r="U27" s="4">
-        <f t="shared" si="4"/>
-        <v>3.8299685011160651</v>
+        <f t="shared" si="16"/>
+        <v>3.3908804555600591</v>
       </c>
       <c r="V27" s="7"/>
       <c r="W27" s="7"/>
@@ -13224,13 +14088,27 @@
       <c r="AA27" s="7"/>
       <c r="AB27" s="7"/>
       <c r="AC27" s="7"/>
-      <c r="AD27" s="7"/>
-      <c r="AE27" s="7"/>
-      <c r="AF27" s="7"/>
-      <c r="AG27" s="7"/>
-      <c r="AH27" s="7"/>
-      <c r="AI27" s="7"/>
-      <c r="AJ27" s="7"/>
+      <c r="AD27" s="11">
+        <v>8</v>
+      </c>
+      <c r="AE27" s="12">
+        <v>125.28489999999999</v>
+      </c>
+      <c r="AF27" s="12">
+        <v>226.4042</v>
+      </c>
+      <c r="AG27" s="12">
+        <v>226.59700000000001</v>
+      </c>
+      <c r="AH27" s="12">
+        <v>7.1923039999999998E-7</v>
+      </c>
+      <c r="AI27" s="12">
+        <v>34.736080000000001</v>
+      </c>
+      <c r="AJ27" s="12">
+        <v>34.7363</v>
+      </c>
       <c r="AK27" s="7"/>
       <c r="AL27" s="7"/>
       <c r="AM27" s="7"/>
@@ -13271,12 +14149,12 @@
         <v>1</v>
       </c>
       <c r="T28" s="5">
-        <f t="shared" si="3"/>
-        <v>2849.9679999999998</v>
+        <f t="shared" si="15"/>
+        <v>3134.9648000000002</v>
       </c>
       <c r="U28" s="4">
-        <f t="shared" si="4"/>
-        <v>3.8296854787313634</v>
+        <f t="shared" si="16"/>
+        <v>3.390623162483057</v>
       </c>
       <c r="V28" s="7"/>
       <c r="W28" s="7"/>
@@ -13286,13 +14164,27 @@
       <c r="AA28" s="7"/>
       <c r="AB28" s="7"/>
       <c r="AC28" s="7"/>
-      <c r="AD28" s="7"/>
-      <c r="AE28" s="7"/>
-      <c r="AF28" s="7"/>
-      <c r="AG28" s="7"/>
-      <c r="AH28" s="7"/>
-      <c r="AI28" s="7"/>
-      <c r="AJ28" s="7"/>
+      <c r="AD28" s="11">
+        <v>9</v>
+      </c>
+      <c r="AE28" s="12">
+        <v>125.26</v>
+      </c>
+      <c r="AF28" s="12">
+        <v>226.5043</v>
+      </c>
+      <c r="AG28" s="12">
+        <v>226.52269999999999</v>
+      </c>
+      <c r="AH28" s="12">
+        <v>4.2243999999999998E-8</v>
+      </c>
+      <c r="AI28" s="12">
+        <v>34.731720000000003</v>
+      </c>
+      <c r="AJ28" s="12">
+        <v>34.73171</v>
+      </c>
       <c r="AK28" s="7"/>
       <c r="AL28" s="7"/>
       <c r="AM28" s="7"/>
@@ -13333,12 +14225,12 @@
         <v>1</v>
       </c>
       <c r="T29" s="5">
-        <f t="shared" si="3"/>
-        <v>125.28489999999999</v>
+        <f t="shared" si="15"/>
+        <v>137.81339</v>
       </c>
       <c r="U29" s="4">
-        <f t="shared" si="4"/>
-        <v>108.86518777960525</v>
+        <f t="shared" si="16"/>
+        <v>98.877443436004754</v>
       </c>
       <c r="V29" s="7"/>
       <c r="W29" s="7"/>
@@ -13348,13 +14240,27 @@
       <c r="AA29" s="7"/>
       <c r="AB29" s="7"/>
       <c r="AC29" s="7"/>
-      <c r="AD29" s="7"/>
-      <c r="AE29" s="7"/>
-      <c r="AF29" s="7"/>
-      <c r="AG29" s="7"/>
-      <c r="AH29" s="7"/>
-      <c r="AI29" s="7"/>
-      <c r="AJ29" s="7"/>
+      <c r="AD29" s="11">
+        <v>10</v>
+      </c>
+      <c r="AE29" s="12">
+        <v>2849.4830000000002</v>
+      </c>
+      <c r="AF29" s="12">
+        <v>665.06979999999999</v>
+      </c>
+      <c r="AG29" s="12">
+        <v>38.97833</v>
+      </c>
+      <c r="AH29" s="12">
+        <v>7.6920220000000004E-4</v>
+      </c>
+      <c r="AI29" s="12">
+        <v>2.1125579999999999</v>
+      </c>
+      <c r="AJ29" s="12">
+        <v>95.379199999999997</v>
+      </c>
       <c r="AK29" s="7"/>
       <c r="AL29" s="7"/>
       <c r="AM29" s="7"/>
@@ -13395,12 +14301,12 @@
         <v>1</v>
       </c>
       <c r="T30" s="5">
-        <f t="shared" si="3"/>
-        <v>125.26</v>
+        <f t="shared" si="15"/>
+        <v>137.78600000000003</v>
       </c>
       <c r="U30" s="4">
-        <f t="shared" si="4"/>
-        <v>108.88702749839585</v>
+        <f t="shared" si="16"/>
+        <v>98.897297725814397</v>
       </c>
       <c r="V30" s="7"/>
       <c r="W30" s="8"/>
@@ -13410,13 +14316,27 @@
       <c r="AA30" s="7"/>
       <c r="AB30" s="7"/>
       <c r="AC30" s="7"/>
-      <c r="AD30" s="7"/>
-      <c r="AE30" s="7"/>
-      <c r="AF30" s="7"/>
-      <c r="AG30" s="7"/>
-      <c r="AH30" s="7"/>
-      <c r="AI30" s="7"/>
-      <c r="AJ30" s="7"/>
+      <c r="AD30" s="11">
+        <v>11</v>
+      </c>
+      <c r="AE30" s="12">
+        <v>2849.6289999999999</v>
+      </c>
+      <c r="AF30" s="12">
+        <v>39.350720000000003</v>
+      </c>
+      <c r="AG30" s="12">
+        <v>665.12139999999999</v>
+      </c>
+      <c r="AH30" s="12">
+        <v>7.7105459999999995E-4</v>
+      </c>
+      <c r="AI30" s="12">
+        <v>95.384709999999998</v>
+      </c>
+      <c r="AJ30" s="12">
+        <v>2.115437</v>
+      </c>
       <c r="AK30" s="7"/>
       <c r="AL30" s="7"/>
       <c r="AM30" s="7"/>
@@ -13457,12 +14377,12 @@
         <v>1</v>
       </c>
       <c r="T31" s="5">
-        <f t="shared" si="3"/>
-        <v>2849.4830000000002</v>
+        <f t="shared" si="15"/>
+        <v>3134.4313000000006</v>
       </c>
       <c r="U31" s="4">
-        <f t="shared" si="4"/>
-        <v>3.8305075216974673</v>
+        <f t="shared" si="16"/>
+        <v>3.391370474270424</v>
       </c>
       <c r="V31" s="7"/>
       <c r="W31" s="7"/>
@@ -13472,13 +14392,27 @@
       <c r="AA31" s="7"/>
       <c r="AB31" s="7"/>
       <c r="AC31" s="7"/>
-      <c r="AD31" s="7"/>
-      <c r="AE31" s="7"/>
-      <c r="AF31" s="7"/>
-      <c r="AG31" s="7"/>
-      <c r="AH31" s="7"/>
-      <c r="AI31" s="7"/>
-      <c r="AJ31" s="7"/>
+      <c r="AD31" s="11">
+        <v>12</v>
+      </c>
+      <c r="AE31" s="12">
+        <v>2849.4870000000001</v>
+      </c>
+      <c r="AF31" s="12">
+        <v>39.026029999999999</v>
+      </c>
+      <c r="AG31" s="12">
+        <v>665.08860000000004</v>
+      </c>
+      <c r="AH31" s="12">
+        <v>7.7649100000000003E-4</v>
+      </c>
+      <c r="AI31" s="12">
+        <v>95.378619999999998</v>
+      </c>
+      <c r="AJ31" s="12">
+        <v>2.113747</v>
+      </c>
       <c r="AK31" s="7"/>
       <c r="AL31" s="7"/>
       <c r="AM31" s="7"/>
@@ -13519,12 +14453,12 @@
         <v>1</v>
       </c>
       <c r="T32" s="5">
-        <f t="shared" si="3"/>
-        <v>2849.6289999999999</v>
+        <f t="shared" si="15"/>
+        <v>3134.5919000000004</v>
       </c>
       <c r="U32" s="4">
-        <f t="shared" si="4"/>
-        <v>3.8302600319020703</v>
+        <f t="shared" si="16"/>
+        <v>3.3911454835473362</v>
       </c>
       <c r="V32" s="7"/>
       <c r="W32" s="7"/>
@@ -13581,12 +14515,12 @@
         <v>1</v>
       </c>
       <c r="T33" s="5">
-        <f t="shared" si="3"/>
-        <v>2849.4870000000001</v>
+        <f t="shared" si="15"/>
+        <v>3134.4357000000005</v>
       </c>
       <c r="U33" s="4">
-        <f t="shared" si="4"/>
-        <v>3.8305007408172296</v>
+        <f t="shared" si="16"/>
+        <v>3.3913643098338442</v>
       </c>
       <c r="V33" s="7"/>
       <c r="W33" s="7"/>
@@ -13857,15 +14791,15 @@
       </c>
       <c r="U38" s="5">
         <f>ABS(AE6)</f>
-        <v>125.31829999999999</v>
+        <v>137.85013000000001</v>
       </c>
       <c r="V38" s="5">
         <f>SQRT(AF6^2 + AG6^2)</f>
-        <v>320.29207840575765</v>
+        <v>352.32128624633344</v>
       </c>
       <c r="W38" s="4">
         <f>(((Q38-(1-R38)*U38)*S38)/(T38*V38))-1</f>
-        <v>4.8521780051992067</v>
+        <v>4.3152735815175784</v>
       </c>
       <c r="X38" s="7"/>
       <c r="Y38" s="7"/>
@@ -13923,16 +14857,16 @@
         <v>1.4</v>
       </c>
       <c r="U39" s="5">
-        <f t="shared" ref="U39:U49" si="5">ABS(AE7)</f>
-        <v>2850.2809999999999</v>
+        <f t="shared" ref="U39:U49" si="17">ABS(AE7)</f>
+        <v>3135.3091000000004</v>
       </c>
       <c r="V39" s="5">
-        <f t="shared" ref="V39:V49" si="6">SQRT(AF7^2 + AG7^2)</f>
-        <v>666.37318659695484</v>
+        <f t="shared" ref="V39:V49" si="18">SQRT(AF7^2 + AG7^2)</f>
+        <v>733.01050525665039</v>
       </c>
       <c r="W39" s="4">
-        <f t="shared" ref="W39:W49" si="7">(((Q39-(1-R39)*U39)*S39)/(T39*V39))-1</f>
-        <v>1.2508686657822765</v>
+        <f t="shared" ref="W39:W49" si="19">(((Q39-(1-R39)*U39)*S39)/(T39*V39))-1</f>
+        <v>0.99280571063182377</v>
       </c>
       <c r="X39" s="7"/>
       <c r="Y39" s="7"/>
@@ -13990,16 +14924,16 @@
         <v>1.4</v>
       </c>
       <c r="U40" s="5">
-        <f t="shared" si="5"/>
-        <v>2850.0279999999998</v>
+        <f t="shared" si="17"/>
+        <v>3135.0308</v>
       </c>
       <c r="V40" s="5">
-        <f t="shared" si="6"/>
-        <v>666.28316985330639</v>
+        <f t="shared" si="18"/>
+        <v>732.91148683863719</v>
       </c>
       <c r="W40" s="4">
-        <f t="shared" si="7"/>
-        <v>1.2512249486766764</v>
+        <f t="shared" si="19"/>
+        <v>0.99312712848995988</v>
       </c>
       <c r="X40" s="7"/>
       <c r="Y40" s="7"/>
@@ -14058,15 +14992,15 @@
       </c>
       <c r="U41" s="5">
         <f>ABS(AE9)</f>
-        <v>125.2933</v>
+        <v>137.82263</v>
       </c>
       <c r="V41" s="5">
-        <f t="shared" si="6"/>
-        <v>320.31062876117619</v>
+        <f t="shared" si="18"/>
+        <v>352.34169163729376</v>
       </c>
       <c r="W41" s="4">
-        <f t="shared" si="7"/>
-        <v>4.8518498104462253</v>
+        <f t="shared" si="19"/>
+        <v>4.3149764808557434</v>
       </c>
       <c r="X41" s="7"/>
       <c r="Y41" s="7"/>
@@ -14124,16 +15058,16 @@
         <v>1.4</v>
       </c>
       <c r="U42" s="5">
-        <f t="shared" si="5"/>
-        <v>2850.1770000000001</v>
+        <f t="shared" si="17"/>
+        <v>3135.1947000000005</v>
       </c>
       <c r="V42" s="5">
-        <f t="shared" si="6"/>
-        <v>666.35632104109106</v>
+        <f t="shared" si="18"/>
+        <v>732.99195314520011</v>
       </c>
       <c r="W42" s="4">
-        <f t="shared" si="7"/>
-        <v>1.2509470843715556</v>
+        <f t="shared" si="19"/>
+        <v>0.99287759761774219</v>
       </c>
       <c r="X42" s="7"/>
       <c r="Y42" s="7"/>
@@ -14191,16 +15125,16 @@
         <v>1.4</v>
       </c>
       <c r="U43" s="5">
-        <f t="shared" si="5"/>
-        <v>2849.8009999999999</v>
+        <f t="shared" si="17"/>
+        <v>3134.7811000000002</v>
       </c>
       <c r="V43" s="5">
-        <f t="shared" si="6"/>
-        <v>666.32467229966062</v>
+        <f t="shared" si="18"/>
+        <v>732.95713952962672</v>
       </c>
       <c r="W43" s="4">
-        <f t="shared" si="7"/>
-        <v>1.2511315481775855</v>
+        <f t="shared" si="19"/>
+        <v>0.99304980377401519</v>
       </c>
       <c r="X43" s="7"/>
       <c r="Y43" s="7"/>
@@ -14258,16 +15192,16 @@
         <v>1.4</v>
       </c>
       <c r="U44" s="5">
-        <f t="shared" si="5"/>
-        <v>2849.9679999999998</v>
+        <f t="shared" si="17"/>
+        <v>3134.9648000000002</v>
       </c>
       <c r="V44" s="5">
-        <f t="shared" si="6"/>
-        <v>666.2807481180846</v>
+        <f t="shared" si="18"/>
+        <v>732.90882292989306</v>
       </c>
       <c r="W44" s="4">
-        <f t="shared" si="7"/>
-        <v>1.2512455069549624</v>
+        <f t="shared" si="19"/>
+        <v>0.99314674865832231</v>
       </c>
       <c r="X44" s="7"/>
       <c r="Y44" s="7"/>
@@ -14325,16 +15259,16 @@
         <v>1.4</v>
       </c>
       <c r="U45" s="5">
-        <f t="shared" si="5"/>
-        <v>125.28489999999999</v>
+        <f t="shared" si="17"/>
+        <v>137.81339</v>
       </c>
       <c r="V45" s="5">
-        <f t="shared" si="6"/>
-        <v>320.32024941711069</v>
+        <f t="shared" si="18"/>
+        <v>352.35227435882183</v>
       </c>
       <c r="W45" s="4">
-        <f t="shared" si="7"/>
-        <v>4.8516776570038287</v>
+        <f t="shared" si="19"/>
+        <v>4.3148204521310092</v>
       </c>
       <c r="X45" s="7"/>
       <c r="Y45" s="7"/>
@@ -14392,16 +15326,16 @@
         <v>1.4</v>
       </c>
       <c r="U46" s="5">
-        <f t="shared" si="5"/>
-        <v>125.26</v>
+        <f t="shared" si="17"/>
+        <v>137.78600000000003</v>
       </c>
       <c r="V46" s="5">
-        <f t="shared" si="6"/>
-        <v>320.33846402481862</v>
+        <f t="shared" si="18"/>
+        <v>352.37231042730048</v>
       </c>
       <c r="W46" s="4">
-        <f t="shared" si="7"/>
-        <v>4.8513556100031936</v>
+        <f t="shared" si="19"/>
+        <v>4.3145289311036201</v>
       </c>
       <c r="X46" s="7"/>
       <c r="Y46" s="7"/>
@@ -14459,16 +15393,16 @@
         <v>1.4</v>
       </c>
       <c r="U47" s="5">
-        <f t="shared" si="5"/>
-        <v>2849.4830000000002</v>
+        <f t="shared" si="17"/>
+        <v>3134.4313000000006</v>
       </c>
       <c r="V47" s="5">
-        <f t="shared" si="6"/>
-        <v>666.21103944743277</v>
+        <f t="shared" si="18"/>
+        <v>732.83214339217625</v>
       </c>
       <c r="W47" s="4">
-        <f t="shared" si="7"/>
-        <v>1.2515811126046805</v>
+        <f t="shared" si="19"/>
+        <v>0.99345534826900406</v>
       </c>
       <c r="X47" s="7"/>
       <c r="Y47" s="7"/>
@@ -14526,16 +15460,16 @@
         <v>1.4</v>
       </c>
       <c r="U48" s="5">
-        <f t="shared" si="5"/>
-        <v>2849.6289999999999</v>
+        <f t="shared" si="17"/>
+        <v>3134.5919000000004</v>
       </c>
       <c r="V48" s="5">
-        <f t="shared" si="6"/>
-        <v>666.28444068766794</v>
+        <f t="shared" si="18"/>
+        <v>732.91288475643466</v>
       </c>
       <c r="W48" s="4">
-        <f t="shared" si="7"/>
-        <v>1.2513029529985635</v>
+        <f t="shared" si="19"/>
+        <v>0.99320562509346</v>
       </c>
       <c r="X48" s="7"/>
       <c r="Y48" s="7"/>
@@ -14593,16 +15527,16 @@
         <v>1.4</v>
       </c>
       <c r="U49" s="5">
-        <f t="shared" si="5"/>
-        <v>2849.4870000000001</v>
+        <f t="shared" si="17"/>
+        <v>3134.4357000000005</v>
       </c>
       <c r="V49" s="5">
-        <f t="shared" si="6"/>
-        <v>666.2325996733581</v>
+        <f t="shared" si="18"/>
+        <v>732.85585964069389</v>
       </c>
       <c r="W49" s="4">
-        <f t="shared" si="7"/>
-        <v>1.2515074231578018</v>
+        <f t="shared" si="19"/>
+        <v>0.99339001213566669</v>
       </c>
       <c r="X49" s="7"/>
       <c r="Y49" s="7"/>
@@ -14898,19 +15832,19 @@
       </c>
       <c r="Z54" s="5">
         <f>ABS(AE6)</f>
-        <v>125.31829999999999</v>
+        <v>137.85013000000001</v>
       </c>
       <c r="AA54" s="5">
         <f>SQRT(AF6^2 + AG6^2)</f>
-        <v>320.29207840575765</v>
+        <v>352.32128624633344</v>
       </c>
       <c r="AB54" s="8">
         <f>(1/(SQRT(((AA54*T54)/(V54*Q54))^2 + ( (R54+S54*Z54*T54)/(Q54*U54))^2)))-1</f>
-        <v>0.58161377836426675</v>
+        <v>0.58147360707231588</v>
       </c>
       <c r="AC54" s="8">
         <f>(1/(SQRT(((AA54*W54)/(V54*Q54))^2 + ( (R54+S54*Z54*W54)/(Q54*X54))^2)))-1</f>
-        <v>0.83023378663344571</v>
+        <v>0.82985671629646429</v>
       </c>
       <c r="AD54" s="7"/>
       <c r="AE54" s="7"/>
@@ -14977,20 +15911,20 @@
         <v>655000000</v>
       </c>
       <c r="Z55" s="5">
-        <f t="shared" ref="Z55:Z65" si="8">ABS(AE7)</f>
-        <v>2850.2809999999999</v>
+        <f t="shared" ref="Z55:Z65" si="20">ABS(AE7)</f>
+        <v>3135.3091000000004</v>
       </c>
       <c r="AA55" s="5">
-        <f t="shared" ref="AA55:AA65" si="9">SQRT(AF7^2 + AG7^2)</f>
-        <v>666.37318659695484</v>
+        <f t="shared" ref="AA55:AA65" si="21">SQRT(AF7^2 + AG7^2)</f>
+        <v>733.01050525665039</v>
       </c>
       <c r="AB55" s="8">
-        <f t="shared" ref="AB55:AB65" si="10">(1/(SQRT(((AA55*T55)/(V55*Q55))^2 + ( (R55+S55*Z55*T55)/(Q55*U55))^2)))-1</f>
-        <v>0.57254825190893155</v>
+        <f t="shared" ref="AB55:AB65" si="22">(1/(SQRT(((AA55*T55)/(V55*Q55))^2 + ( (R55+S55*Z55*T55)/(Q55*U55))^2)))-1</f>
+        <v>0.57132948132222849</v>
       </c>
       <c r="AC55" s="8">
-        <f t="shared" ref="AC55:AC65" si="11">(1/(SQRT(((AA55*W55)/(V55*Q55))^2 + ( (R55+S55*Z55*W55)/(Q55*X55))^2)))-1</f>
-        <v>0.81328084676342938</v>
+        <f t="shared" ref="AC55:AC65" si="23">(1/(SQRT(((AA55*W55)/(V55*Q55))^2 + ( (R55+S55*Z55*W55)/(Q55*X55))^2)))-1</f>
+        <v>0.8106975655955817</v>
       </c>
       <c r="AD55" s="7"/>
       <c r="AE55" s="7"/>
@@ -15057,20 +15991,20 @@
         <v>655000000</v>
       </c>
       <c r="Z56" s="5">
-        <f t="shared" si="8"/>
-        <v>2850.0279999999998</v>
+        <f t="shared" si="20"/>
+        <v>3135.0308</v>
       </c>
       <c r="AA56" s="5">
-        <f t="shared" si="9"/>
-        <v>666.28316985330639</v>
+        <f t="shared" si="21"/>
+        <v>732.91148683863719</v>
       </c>
       <c r="AB56" s="8">
-        <f t="shared" si="10"/>
-        <v>0.57254951457150183</v>
+        <f t="shared" si="22"/>
+        <v>0.57133093102512289</v>
       </c>
       <c r="AC56" s="8">
-        <f t="shared" si="11"/>
-        <v>0.8132836844492437</v>
+        <f t="shared" si="23"/>
+        <v>0.81070086539436592</v>
       </c>
       <c r="AD56" s="7"/>
       <c r="AE56" s="7"/>
@@ -15137,20 +16071,20 @@
         <v>655000000</v>
       </c>
       <c r="Z57" s="5">
-        <f t="shared" si="8"/>
-        <v>125.2933</v>
+        <f t="shared" si="20"/>
+        <v>137.82263</v>
       </c>
       <c r="AA57" s="5">
-        <f t="shared" si="9"/>
-        <v>320.31062876117619</v>
+        <f t="shared" si="21"/>
+        <v>352.34169163729376</v>
       </c>
       <c r="AB57" s="8">
-        <f t="shared" si="10"/>
-        <v>0.58161378825236265</v>
+        <f t="shared" si="22"/>
+        <v>0.58147361152158017</v>
       </c>
       <c r="AC57" s="8">
-        <f t="shared" si="11"/>
-        <v>0.83023371971510107</v>
+        <f t="shared" si="23"/>
+        <v>0.82985662322409359</v>
       </c>
       <c r="AD57" s="7"/>
       <c r="AE57" s="7"/>
@@ -15217,20 +16151,20 @@
         <v>655000000</v>
       </c>
       <c r="Z58" s="5">
-        <f t="shared" si="8"/>
-        <v>2850.1770000000001</v>
+        <f t="shared" si="20"/>
+        <v>3135.1947000000005</v>
       </c>
       <c r="AA58" s="5">
-        <f t="shared" si="9"/>
-        <v>666.35632104109106</v>
+        <f t="shared" si="21"/>
+        <v>732.99195314520011</v>
       </c>
       <c r="AB58" s="8">
-        <f t="shared" si="10"/>
-        <v>0.57254864124175309</v>
+        <f t="shared" si="22"/>
+        <v>0.57132992066742716</v>
       </c>
       <c r="AC58" s="8">
-        <f t="shared" si="11"/>
-        <v>0.81328162347920352</v>
+        <f t="shared" si="23"/>
+        <v>0.81069845243286465</v>
       </c>
       <c r="AD58" s="7"/>
       <c r="AE58" s="7"/>
@@ -15297,20 +16231,20 @@
         <v>655000000</v>
       </c>
       <c r="Z59" s="5">
-        <f t="shared" si="8"/>
-        <v>2849.8009999999999</v>
+        <f t="shared" si="20"/>
+        <v>3134.7811000000002</v>
       </c>
       <c r="AA59" s="5">
-        <f t="shared" si="9"/>
-        <v>666.32467229966062</v>
+        <f t="shared" si="21"/>
+        <v>732.95713952962672</v>
       </c>
       <c r="AB59" s="8">
-        <f t="shared" si="10"/>
-        <v>0.57254985990953289</v>
+        <f t="shared" si="22"/>
+        <v>0.57133128100711894</v>
       </c>
       <c r="AC59" s="8">
-        <f t="shared" si="11"/>
-        <v>0.81328386390736029</v>
+        <f t="shared" si="23"/>
+        <v>0.81070097470800051</v>
       </c>
       <c r="AD59" s="7"/>
       <c r="AE59" s="7"/>
@@ -15377,20 +16311,20 @@
         <v>655000000</v>
       </c>
       <c r="Z60" s="5">
-        <f t="shared" si="8"/>
-        <v>2849.9679999999998</v>
+        <f t="shared" si="20"/>
+        <v>3134.9648000000002</v>
       </c>
       <c r="AA60" s="5">
-        <f t="shared" si="9"/>
-        <v>666.2807481180846</v>
+        <f t="shared" si="21"/>
+        <v>732.90882292989306</v>
       </c>
       <c r="AB60" s="8">
-        <f t="shared" si="10"/>
-        <v>0.57254969210646767</v>
+        <f t="shared" si="22"/>
+        <v>0.57133112765893035</v>
       </c>
       <c r="AC60" s="8">
-        <f t="shared" si="11"/>
-        <v>0.81328399108054872</v>
+        <f t="shared" si="23"/>
+        <v>0.81070120657847111</v>
       </c>
       <c r="AD60" s="7"/>
       <c r="AE60" s="7"/>
@@ -15457,20 +16391,20 @@
         <v>655000000</v>
       </c>
       <c r="Z61" s="5">
-        <f t="shared" si="8"/>
-        <v>125.28489999999999</v>
+        <f t="shared" si="20"/>
+        <v>137.81339</v>
       </c>
       <c r="AA61" s="5">
-        <f t="shared" si="9"/>
-        <v>320.32024941711069</v>
+        <f t="shared" si="21"/>
+        <v>352.35227435882183</v>
       </c>
       <c r="AB61" s="8">
-        <f t="shared" si="10"/>
-        <v>0.58161378090141458</v>
+        <f t="shared" si="22"/>
+        <v>0.5814736001052152</v>
       </c>
       <c r="AC61" s="8">
-        <f t="shared" si="11"/>
-        <v>0.83023366481337146</v>
+        <f t="shared" si="23"/>
+        <v>0.82985655275124826</v>
       </c>
       <c r="AD61" s="7"/>
       <c r="AE61" s="7"/>
@@ -15537,20 +16471,20 @@
         <v>655000000</v>
       </c>
       <c r="Z62" s="5">
-        <f t="shared" si="8"/>
-        <v>125.26</v>
+        <f t="shared" si="20"/>
+        <v>137.78600000000003</v>
       </c>
       <c r="AA62" s="5">
-        <f t="shared" si="9"/>
-        <v>320.33846402481862</v>
+        <f t="shared" si="21"/>
+        <v>352.37231042730048</v>
       </c>
       <c r="AB62" s="8">
-        <f t="shared" si="10"/>
-        <v>0.58161379156885862</v>
+        <f t="shared" si="22"/>
+        <v>0.58147360552728844</v>
       </c>
       <c r="AC62" s="8">
-        <f t="shared" si="11"/>
-        <v>0.83023360064988538</v>
+        <f t="shared" si="23"/>
+        <v>0.82985646305880945</v>
       </c>
       <c r="AD62" s="7"/>
       <c r="AE62" s="7"/>
@@ -15617,20 +16551,20 @@
         <v>655000000</v>
       </c>
       <c r="Z63" s="5">
-        <f t="shared" si="8"/>
-        <v>2849.4830000000002</v>
+        <f t="shared" si="20"/>
+        <v>3134.4313000000006</v>
       </c>
       <c r="AA63" s="5">
-        <f t="shared" si="9"/>
-        <v>666.21103944743277</v>
+        <f t="shared" si="21"/>
+        <v>732.83214339217625</v>
       </c>
       <c r="AB63" s="8">
-        <f t="shared" si="10"/>
-        <v>0.5725514500615414</v>
+        <f t="shared" si="22"/>
+        <v>0.57133310689393779</v>
       </c>
       <c r="AC63" s="8">
-        <f t="shared" si="11"/>
-        <v>0.81328743993259334</v>
+        <f t="shared" si="23"/>
+        <v>0.81070513347605977</v>
       </c>
       <c r="AD63" s="7"/>
       <c r="AE63" s="7"/>
@@ -15697,20 +16631,20 @@
         <v>655000000</v>
       </c>
       <c r="Z64" s="5">
-        <f t="shared" si="8"/>
-        <v>2849.6289999999999</v>
+        <f t="shared" si="20"/>
+        <v>3134.5919000000004</v>
       </c>
       <c r="AA64" s="5">
-        <f t="shared" si="9"/>
-        <v>666.28444068766794</v>
+        <f t="shared" si="21"/>
+        <v>732.91288475643466</v>
       </c>
       <c r="AB64" s="8">
-        <f t="shared" si="10"/>
-        <v>0.5725505832662241</v>
+        <f t="shared" si="22"/>
+        <v>0.57133210354000807</v>
       </c>
       <c r="AC64" s="8">
-        <f t="shared" si="11"/>
-        <v>0.81328538725210819</v>
+        <f t="shared" si="23"/>
+        <v>0.81070272908765428</v>
       </c>
       <c r="AD64" s="7"/>
       <c r="AE64" s="7"/>
@@ -15777,20 +16711,20 @@
         <v>655000000</v>
       </c>
       <c r="Z65" s="5">
-        <f t="shared" si="8"/>
-        <v>2849.4870000000001</v>
+        <f t="shared" si="20"/>
+        <v>3134.4357000000005</v>
       </c>
       <c r="AA65" s="5">
-        <f t="shared" si="9"/>
-        <v>666.2325996733581</v>
+        <f t="shared" si="21"/>
+        <v>732.85585964069389</v>
       </c>
       <c r="AB65" s="8">
-        <f t="shared" si="10"/>
-        <v>0.57255130041012992</v>
+        <f t="shared" si="22"/>
+        <v>0.5713329274152541</v>
       </c>
       <c r="AC65" s="8">
-        <f t="shared" si="11"/>
-        <v>0.8132870053571688</v>
+        <f t="shared" si="23"/>
+        <v>0.81070461176695408</v>
       </c>
       <c r="AD65" s="7"/>
       <c r="AE65" s="7"/>
@@ -16115,4 +17049,443 @@
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BECC4EF-96D5-49AC-BA90-D6636ED552C9}">
+  <dimension ref="B6:H26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13:H26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>59</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="D6" s="13"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="G6" s="13"/>
+      <c r="H6" s="13"/>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C7" t="s">
+        <v>60</v>
+      </c>
+      <c r="D7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7" t="s">
+        <v>58</v>
+      </c>
+      <c r="G7" t="s">
+        <v>10</v>
+      </c>
+      <c r="H7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C8" s="12">
+        <v>144000000</v>
+      </c>
+      <c r="D8" s="12">
+        <v>0.88698277541252701</v>
+      </c>
+      <c r="E8" s="12">
+        <v>0.95133149678604201</v>
+      </c>
+      <c r="F8" s="12">
+        <v>150000000</v>
+      </c>
+      <c r="G8" s="12">
+        <v>0.81150346439602594</v>
+      </c>
+      <c r="H8" s="12">
+        <v>0.8732782369146006</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="12">
+        <v>269000000</v>
+      </c>
+      <c r="D9" s="12">
+        <v>1.0132043343508812E-2</v>
+      </c>
+      <c r="E9" s="12">
+        <v>4.4578942517435216E-2</v>
+      </c>
+      <c r="F9" s="12">
+        <v>259000000</v>
+      </c>
+      <c r="G9" s="12">
+        <v>4.9133280538238955E-2</v>
+      </c>
+      <c r="H9" s="12">
+        <v>8.491017581926652E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>53</v>
+      </c>
+      <c r="C10" s="12">
+        <v>12800000</v>
+      </c>
+      <c r="D10" s="12">
+        <v>20.228556223390935</v>
+      </c>
+      <c r="E10" s="12">
+        <v>20.952479338842974</v>
+      </c>
+      <c r="F10" s="12">
+        <v>13900000</v>
+      </c>
+      <c r="G10" s="12">
+        <v>18.548598536647766</v>
+      </c>
+      <c r="H10" s="12">
+        <v>19.215232772459718</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B13" s="11"/>
+      <c r="C13" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="D13" s="13"/>
+      <c r="E13" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="F13" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="G13" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="H13" s="13"/>
+    </row>
+    <row r="14" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B14" s="11"/>
+      <c r="C14" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="D14" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="E14" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="F14" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="G14" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="H14" s="11" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="15" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B15" s="11">
+        <v>1</v>
+      </c>
+      <c r="C15" s="12">
+        <v>0.58208421409177213</v>
+      </c>
+      <c r="D15" s="12">
+        <v>0.83171234907061642</v>
+      </c>
+      <c r="E15" s="12">
+        <v>98.850823966934698</v>
+      </c>
+      <c r="F15" s="12">
+        <v>4.3152735815175784</v>
+      </c>
+      <c r="G15" s="12">
+        <v>0.58147360707231588</v>
+      </c>
+      <c r="H15" s="12">
+        <v>0.82985671629646429</v>
+      </c>
+    </row>
+    <row r="16" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B16" s="11">
+        <v>2</v>
+      </c>
+      <c r="C16" s="12">
+        <v>0.57392691638126214</v>
+      </c>
+      <c r="D16" s="12">
+        <v>0.81851866304996279</v>
+      </c>
+      <c r="E16" s="12">
+        <v>3.3901410117583186</v>
+      </c>
+      <c r="F16" s="12">
+        <v>0.99280571063182377</v>
+      </c>
+      <c r="G16" s="12">
+        <v>0.57132948132222849</v>
+      </c>
+      <c r="H16" s="12">
+        <v>0.8106975655955817</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B17" s="11">
+        <v>3</v>
+      </c>
+      <c r="C17" s="12">
+        <v>0.57392766984342014</v>
+      </c>
+      <c r="D17" s="12">
+        <v>0.81851987919923297</v>
+      </c>
+      <c r="E17" s="12">
+        <v>3.3905307292193312</v>
+      </c>
+      <c r="F17" s="12">
+        <v>0.99312712848995988</v>
+      </c>
+      <c r="G17" s="12">
+        <v>0.57133093102512289</v>
+      </c>
+      <c r="H17" s="12">
+        <v>0.81070086539436592</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B18" s="11">
+        <v>4</v>
+      </c>
+      <c r="C18" s="12">
+        <v>0.58208428931826495</v>
+      </c>
+      <c r="D18" s="12">
+        <v>0.83171247099347356</v>
+      </c>
+      <c r="E18" s="12">
+        <v>98.870747383423634</v>
+      </c>
+      <c r="F18" s="12">
+        <v>4.3149764808557434</v>
+      </c>
+      <c r="G18" s="12">
+        <v>0.58147361152158017</v>
+      </c>
+      <c r="H18" s="12">
+        <v>0.82985662322409359</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B19" s="11">
+        <v>5</v>
+      </c>
+      <c r="C19" s="12">
+        <v>0.57392722610474967</v>
+      </c>
+      <c r="D19" s="12">
+        <v>0.81851916296883354</v>
+      </c>
+      <c r="E19" s="12">
+        <v>3.3903012034464917</v>
+      </c>
+      <c r="F19" s="12">
+        <v>0.99287759761774219</v>
+      </c>
+      <c r="G19" s="12">
+        <v>0.57132992066742716</v>
+      </c>
+      <c r="H19" s="12">
+        <v>0.81069845243286465</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B20" s="11">
+        <v>6</v>
+      </c>
+      <c r="C20" s="12">
+        <v>0.5739283458752984</v>
+      </c>
+      <c r="D20" s="12">
+        <v>0.81852097037012062</v>
+      </c>
+      <c r="E20" s="12">
+        <v>3.3908804555600591</v>
+      </c>
+      <c r="F20" s="12">
+        <v>0.99304980377401519</v>
+      </c>
+      <c r="G20" s="12">
+        <v>0.57133128100711894</v>
+      </c>
+      <c r="H20" s="12">
+        <v>0.81070097470800051</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B21" s="11">
+        <v>7</v>
+      </c>
+      <c r="C21" s="12">
+        <v>0.57392784853020373</v>
+      </c>
+      <c r="D21" s="12">
+        <v>0.8185201676143179</v>
+      </c>
+      <c r="E21" s="12">
+        <v>3.390623162483057</v>
+      </c>
+      <c r="F21" s="12">
+        <v>0.99314674865832231</v>
+      </c>
+      <c r="G21" s="12">
+        <v>0.57133112765893035</v>
+      </c>
+      <c r="H21" s="12">
+        <v>0.81070120657847111</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B22" s="11">
+        <v>8</v>
+      </c>
+      <c r="C22" s="12">
+        <v>0.58208431459436838</v>
+      </c>
+      <c r="D22" s="12">
+        <v>0.8317125119595572</v>
+      </c>
+      <c r="E22" s="12">
+        <v>98.877443436004754</v>
+      </c>
+      <c r="F22" s="12">
+        <v>4.3148204521310092</v>
+      </c>
+      <c r="G22" s="12">
+        <v>0.5814736001052152</v>
+      </c>
+      <c r="H22" s="12">
+        <v>0.82985655275124826</v>
+      </c>
+    </row>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B23" s="11">
+        <v>9</v>
+      </c>
+      <c r="C23" s="12">
+        <v>0.58208438951996477</v>
+      </c>
+      <c r="D23" s="12">
+        <v>0.83171263339474422</v>
+      </c>
+      <c r="E23" s="12">
+        <v>98.897297725814397</v>
+      </c>
+      <c r="F23" s="12">
+        <v>4.3145289311036201</v>
+      </c>
+      <c r="G23" s="12">
+        <v>0.58147360552728844</v>
+      </c>
+      <c r="H23" s="12">
+        <v>0.82985646305880945</v>
+      </c>
+    </row>
+    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B24" s="11">
+        <v>10</v>
+      </c>
+      <c r="C24" s="12">
+        <v>0.57392929291652739</v>
+      </c>
+      <c r="D24" s="12">
+        <v>0.81852249897294937</v>
+      </c>
+      <c r="E24" s="12">
+        <v>3.391370474270424</v>
+      </c>
+      <c r="F24" s="12">
+        <v>0.99345534826900406</v>
+      </c>
+      <c r="G24" s="12">
+        <v>0.57133310689393779</v>
+      </c>
+      <c r="H24" s="12">
+        <v>0.81070513347605977</v>
+      </c>
+    </row>
+    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B25" s="11">
+        <v>11</v>
+      </c>
+      <c r="C25" s="12">
+        <v>0.57392885811129357</v>
+      </c>
+      <c r="D25" s="12">
+        <v>0.81852179716126838</v>
+      </c>
+      <c r="E25" s="12">
+        <v>3.3911454835473362</v>
+      </c>
+      <c r="F25" s="12">
+        <v>0.99320562509346</v>
+      </c>
+      <c r="G25" s="12">
+        <v>0.57133210354000807</v>
+      </c>
+      <c r="H25" s="12">
+        <v>0.81070272908765428</v>
+      </c>
+    </row>
+    <row r="26" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B26" s="11">
+        <v>12</v>
+      </c>
+      <c r="C26" s="12">
+        <v>0.57392928100405216</v>
+      </c>
+      <c r="D26" s="12">
+        <v>0.81852247974522463</v>
+      </c>
+      <c r="E26" s="12">
+        <v>3.3913643098338442</v>
+      </c>
+      <c r="F26" s="12">
+        <v>0.99339001213566669</v>
+      </c>
+      <c r="G26" s="12">
+        <v>0.5713329274152541</v>
+      </c>
+      <c r="H26" s="12">
+        <v>0.81070461176695408</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="F6:H6"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="G13:H13"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>